--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" activeTab="8"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="PXIPMX07 - 306SALES" sheetId="1" r:id="rId8"/>
     <sheet name="PXIPMX08 - 361DEDUCT" sheetId="8" r:id="rId9"/>
     <sheet name="PXIPMX09 - 336PCACT" sheetId="10" r:id="rId10"/>
-    <sheet name="FFLU PXIPMX08 - 361DEDUCT" sheetId="15" r:id="rId11"/>
-    <sheet name="FFLU PMXPXI01 - 325ACCRLS" sheetId="16" r:id="rId12"/>
-    <sheet name="FFLU PMXPXI02 - 331CLAIMS" sheetId="17" r:id="rId13"/>
-    <sheet name="FFLU PMXATL04 - 359PROM" sheetId="18" r:id="rId14"/>
-    <sheet name="Formulas" sheetId="2" r:id="rId15"/>
+    <sheet name="PXIATL02 - CISATL14" sheetId="19" r:id="rId11"/>
+    <sheet name="FFLU PXIPMX08 - 361DEDUCT" sheetId="15" r:id="rId12"/>
+    <sheet name="FFLU PMXPXI01 - 325ACCRLS" sheetId="16" r:id="rId13"/>
+    <sheet name="FFLU PMXPXI02 - 331CLAIMS" sheetId="17" r:id="rId14"/>
+    <sheet name="FFLU PMXPXI03 - 359PROM" sheetId="20" r:id="rId15"/>
+    <sheet name="Formulas" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Interface Master'!$A$1:$H$30</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="445">
   <si>
     <t>No</t>
   </si>
@@ -734,9 +735,6 @@
     <t>Costs</t>
   </si>
   <si>
-    <t>PXIATL04</t>
-  </si>
-  <si>
     <t>Accruals</t>
   </si>
   <si>
@@ -797,9 +795,6 @@
     <t>PMXPXI01</t>
   </si>
   <si>
-    <t>PMXATL03</t>
-  </si>
-  <si>
     <t>CISATL03</t>
   </si>
   <si>
@@ -1260,6 +1255,129 @@
   </si>
   <si>
     <t>336PCACT</t>
+  </si>
+  <si>
+    <t>PMXPXI03</t>
+  </si>
+  <si>
+    <t>PXIATL02</t>
+  </si>
+  <si>
+    <t>UsageConditionCode</t>
+  </si>
+  <si>
+    <t>cndtn_table_ref</t>
+  </si>
+  <si>
+    <t>CondTable</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VAKEY</t>
+  </si>
+  <si>
+    <t>px_company_code</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>cust_div_code</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>cust_hier</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>buy_start_date</t>
+  </si>
+  <si>
+    <t>ValidFrom</t>
+  </si>
+  <si>
+    <t>buy_stop_date</t>
+  </si>
+  <si>
+    <t>ValidTo</t>
+  </si>
+  <si>
+    <t>pricing_cndtn_code</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>condition_type_code</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>s9999990.00</t>
+  </si>
+  <si>
+    <t>rate_unit</t>
+  </si>
+  <si>
+    <t>RateUnit</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>sales_deal</t>
+  </si>
+  <si>
+    <t>PromoNum</t>
+  </si>
+  <si>
+    <t>rate_multiplier</t>
+  </si>
+  <si>
+    <t>PriceUnit</t>
+  </si>
+  <si>
+    <t>order_type_code</t>
+  </si>
+  <si>
+    <t>OrderType</t>
+  </si>
+  <si>
+    <t>Condition Flag</t>
+  </si>
+  <si>
+    <t>Business Segment</t>
+  </si>
+  <si>
+    <t>Rate Multiplier</t>
+  </si>
+  <si>
+    <t>number(4)</t>
+  </si>
+  <si>
+    <t>Condition Type Code</t>
+  </si>
+  <si>
+    <t>Pricing Condition Code</t>
+  </si>
+  <si>
+    <t>Condition Table Ref</t>
+  </si>
+  <si>
+    <t>Cust Div Code</t>
+  </si>
+  <si>
+    <t>Order Type Code</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1693,13 +1811,13 @@
         <v>197</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>200</v>
@@ -1722,7 +1840,7 @@
         <v>203</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>204</v>
@@ -1731,7 +1849,7 @@
         <v>302</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>206</v>
@@ -1751,7 +1869,7 @@
         <v>203</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>207</v>
@@ -1760,7 +1878,7 @@
         <v>303</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>206</v>
@@ -1780,7 +1898,7 @@
         <v>203</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>209</v>
@@ -1789,7 +1907,7 @@
         <v>300</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>206</v>
@@ -1809,7 +1927,7 @@
         <v>203</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>211</v>
@@ -1818,7 +1936,7 @@
         <v>301</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>198</v>
@@ -1838,7 +1956,7 @@
         <v>203</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>213</v>
@@ -1847,7 +1965,7 @@
         <v>347</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>206</v>
@@ -1867,7 +1985,7 @@
         <v>203</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>215</v>
@@ -1876,7 +1994,7 @@
         <v>330</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>206</v>
@@ -1896,7 +2014,7 @@
         <v>202</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>218</v>
@@ -1919,7 +2037,7 @@
         <v>203</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>220</v>
@@ -1928,7 +2046,7 @@
         <v>361</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>198</v>
@@ -1948,13 +2066,13 @@
         <v>202</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>223</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>206</v>
@@ -1974,7 +2092,7 @@
         <v>203</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" s="1">
         <v>306</v>
@@ -1997,7 +2115,7 @@
         <v>225</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="1">
         <v>322</v>
@@ -2023,7 +2141,7 @@
         <v>203</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>227</v>
@@ -2032,7 +2150,7 @@
         <v>336</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>198</v>
@@ -2052,7 +2170,7 @@
         <v>225</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G14" s="1">
         <v>502</v>
@@ -2078,7 +2196,7 @@
         <v>225</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" s="1">
         <v>363</v>
@@ -2095,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>203</v>
@@ -2104,23 +2222,23 @@
         <v>202</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="G16" s="1">
         <v>359</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>F16</f>
-        <v>PMXATL03</v>
+        <v>PMXPXI03</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>CONCATENATE("Promax NZ &gt; LADS : ",B16," : ",G16, " : ",H16)</f>
@@ -2128,7 +2246,7 @@
       </c>
       <c r="M16" s="1" t="str">
         <f>LOWER(CONCATENATE("site_app.",F16,"_loader"))</f>
-        <v>site_app.pmxatl03_loader</v>
+        <v>site_app.pmxpxi03_loader</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2136,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>202</v>
@@ -2145,16 +2263,16 @@
         <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>405</v>
       </c>
       <c r="G17" s="1">
         <v>359</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>198</v>
@@ -2165,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>203</v>
@@ -2174,16 +2292,16 @@
         <v>202</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="1">
         <v>325</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>198</v>
@@ -2206,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>202</v>
@@ -2215,16 +2333,16 @@
         <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G19" s="1">
         <v>325</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>198</v>
@@ -2235,7 +2353,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>203</v>
@@ -2244,16 +2362,16 @@
         <v>202</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="1">
         <v>331</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>198</v>
@@ -2276,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>202</v>
@@ -2285,16 +2403,16 @@
         <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G21" s="1">
         <v>331</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>198</v>
@@ -2314,16 +2432,16 @@
         <v>202</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G22" s="1">
         <v>331</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>198</v>
@@ -2334,7 +2452,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>202</v>
@@ -2343,16 +2461,16 @@
         <v>217</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G23" s="1">
         <v>331</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>198</v>
@@ -2363,7 +2481,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>203</v>
@@ -2372,16 +2490,16 @@
         <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" s="1">
         <v>337</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>198</v>
@@ -2400,19 +2518,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25" s="1">
         <v>337</v>
@@ -2426,16 +2544,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>198</v>
@@ -2446,16 +2564,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>198</v>
@@ -2463,17 +2581,17 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2899,6 +3017,680 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="104.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f t="shared" ref="M2:M19" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
+        <v/>
+      </c>
+      <c r="O2" s="8" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('A', 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'A' -&gt; UsageConditionCode</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D19" si="1">D2+E2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="M3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O3" s="8" t="str">
+        <f t="shared" ref="O3:O19" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format(cndtn_table_ref, 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cndtn_table_ref -&gt; CondTable</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O4" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('V', 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'V' -&gt; Application</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="8" t="str">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G5,IF(I5="Yes","_CONSTANT","")))), "::source_field::", A5), "::target_field::", C5), "::position::", D5), "::length::", E5), "::format::", H5), "::constant::", J5), "::is_nullable::", IF(F5="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L5), "none", LOWER(L5))))</f>
+        <v>pxi_common.char_format(VAKEY, 50, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- VAKEY -&gt; VAKEY</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(px_company_code, 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- px_company_code -&gt; CompanyCode</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(cust_div_code, 2, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cust_div_code -&gt; Division</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="M8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(cust_hier, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cust_hier -&gt; Customer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(material, 18, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- material -&gt; Material</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O10" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(buy_start_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- buy_start_date -&gt; ValidFrom</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O11" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(buy_stop_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- buy_stop_date -&gt; ValidTo</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(pricing_cndtn_code, 4, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- pricing_cndtn_code -&gt; Condition</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(condition_type_code, 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- condition_type_code -&gt; ConditionType</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O14" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rate, 's9999990.00', pxi_common.is_not_nullable) || -- rate -&gt; Rate</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O15" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(rate_unit, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- rate_unit -&gt; RateUnit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="M16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O16" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('EA', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'EA' -&gt; UOM</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(sales_deal, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- sales_deal -&gt; PromoNum</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O18" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(rate_multiplier, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- rate_multiplier -&gt; PriceUnit</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O19" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(order_type_code, 4, pxi_common.format_type_none, pxi_common.is_nullable) || -- order_type_code -&gt; OrderType</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
@@ -2931,13 +3723,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
@@ -2955,27 +3747,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>185</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B22" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -3002,7 +3794,7 @@
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3044,7 +3836,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3072,7 +3864,7 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K3" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3114,7 +3906,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3138,14 +3930,14 @@
         <v>4</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K4" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3187,7 +3979,7 @@
     </row>
     <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3211,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3275,7 +4067,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3302,7 +4094,7 @@
         <v/>
       </c>
       <c r="J7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K7" s="8" t="str">
         <f t="shared" ref="K7:K22" ca="1" si="4">SUBSTITUTE(
@@ -3316,7 +4108,7 @@
         <v>pv_inbound_rec.rec_type := fflu_data.get_char_field(pc_rec_type);</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
+        <f t="shared" ref="L7:L22" ca="1" si="5">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -3327,7 +4119,7 @@
         <v>fflu_data.add_char_field_txt(pc_rec_type,1,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f t="shared" ref="M7:M22" ca="1" si="5">SUBSTITUTE(
+        <f t="shared" ref="M7:M22" ca="1" si="6">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -3338,13 +4130,13 @@
         <v>pc_rec_type constant fflu_common.st_name := 'Rec Type';</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f t="shared" ref="N7:N22" si="6">CONCATENATE(B7," ",J7,",")</f>
+        <f t="shared" ref="N7:N22" si="7">CONCATENATE(B7," ",J7,",")</f>
         <v>rec_type varchar2(3 char),</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3372,35 +4164,28 @@
         <v/>
       </c>
       <c r="J8" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.company_code := fflu_data.get_char_field(pc_company_code);</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G8,"_field")),"::field_desc::",$A8),"::field_name::",$B8),"::position::",$D8+1),"::length::",$E8),"::required::",IF($F8="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H8),"fflu_data.gc_null_format",CONCATENATE("'",$H8,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_company_code,4,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_company_code constant fflu_common.st_name := 'Company Code';</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>company_code varchar2(3 char),</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3411,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" ref="D9:D22" si="7">D8+E8</f>
+        <f t="shared" ref="D9:D22" si="8">D8+E8</f>
         <v>6</v>
       </c>
       <c r="E9" s="1">
@@ -3428,35 +4213,28 @@
         <v/>
       </c>
       <c r="J9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.div_code := fflu_data.get_char_field(pc_div_code);</v>
       </c>
       <c r="L9" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G9,"_field")),"::field_desc::",$A9),"::field_name::",$B9),"::position::",$D9+1),"::length::",$E9),"::required::",IF($F9="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H9),"fflu_data.gc_null_format",CONCATENATE("'",$H9,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_div_code,7,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_div_code constant fflu_common.st_name := 'Div Code';</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>div_code varchar2(3 char),</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3467,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="E10" s="1">
@@ -3484,35 +4262,28 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.cust_code := fflu_data.get_char_field(pc_cust_code);</v>
       </c>
       <c r="L10" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G10,"_field")),"::field_desc::",$A10),"::field_name::",$B10),"::position::",$D10+1),"::length::",$E10),"::required::",IF($F10="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H10),"fflu_data.gc_null_format",CONCATENATE("'",$H10,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_cust_code,10,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_cust_code constant fflu_common.st_name := 'Cust Code';</v>
       </c>
       <c r="N10" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cust_code varchar2(10 char),</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3523,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="E11" s="1">
@@ -3536,42 +4307,35 @@
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.claim_amount := fflu_data.get_number_field(pc_claim_amount);</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G11,"_field")),"::field_desc::",$A11),"::field_name::",$B11),"::position::",$D11+1),"::length::",$E11),"::required::",IF($F11="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H11),"fflu_data.gc_null_format",CONCATENATE("'",$H11,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_number_field_txt(pc_claim_amount,20,15,'9999999990.0000',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M11" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_claim_amount constant fflu_common.st_name := 'Claim Amount';</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>claim_amount number(15,4),</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3582,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="E12" s="1">
@@ -3599,35 +4363,28 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.claim_ref := fflu_data.get_char_field(pc_claim_ref);</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G12,"_field")),"::field_desc::",$A12),"::field_name::",$B12),"::position::",$D12+1),"::length::",$E12),"::required::",IF($F12="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H12),"fflu_data.gc_null_format",CONCATENATE("'",$H12,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_claim_ref,35,12,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_claim_ref constant fflu_common.st_name := 'Claim Ref';</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>claim_ref varchar2(12 char),</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3638,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="E13" s="1">
@@ -3655,35 +4412,28 @@
         <v/>
       </c>
       <c r="J13" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.assignment_no := fflu_data.get_char_field(pc_assignment_no);</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G13,"_field")),"::field_desc::",$A13),"::field_name::",$B13),"::position::",$D13+1),"::length::",$E13),"::required::",IF($F13="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H13),"fflu_data.gc_null_format",CONCATENATE("'",$H13,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_assignment_no,47,18,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_assignment_no constant fflu_common.st_name := 'Assignment No';</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>assignment_no varchar2(18 char),</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3694,7 +4444,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="E14" s="1">
@@ -3707,42 +4457,35 @@
         <v>4</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.tax_base := fflu_data.get_number_field(pc_tax_base);</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G14,"_field")),"::field_desc::",$A14),"::field_name::",$B14),"::position::",$D14+1),"::length::",$E14),"::required::",IF($F14="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H14),"fflu_data.gc_null_format",CONCATENATE("'",$H14,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_number_field_txt(pc_tax_base,65,15,'9999999990.0000',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_tax_base constant fflu_common.st_name := 'Tax Base';</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>tax_base number(15,4),</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3753,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="E15" s="1">
@@ -3780,28 +4523,21 @@
         <v>pv_inbound_rec.posting_date := fflu_data.get_date_field(pc_posting_date);</v>
       </c>
       <c r="L15" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G15,"_field")),"::field_desc::",$A15),"::field_name::",$B15),"::position::",$D15+1),"::length::",$E15),"::required::",IF($F15="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H15),"fflu_data.gc_null_format",CONCATENATE("'",$H15,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_date_field_txt(pc_posting_date,80,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_posting_date constant fflu_common.st_name := 'Posting Date';</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>posting_date date,</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3812,7 +4548,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="E16" s="1">
@@ -3825,42 +4561,35 @@
         <v>4</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.fiscal_period := fflu_data.get_number_field(pc_fiscal_period);</v>
       </c>
       <c r="L16" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G16,"_field")),"::field_desc::",$A16),"::field_name::",$B16),"::position::",$D16+1),"::length::",$E16),"::required::",IF($F16="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H16),"fflu_data.gc_null_format",CONCATENATE("'",$H16,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_number_field_txt(pc_fiscal_period,88,2,'90',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_fiscal_period constant fflu_common.st_name := 'Fiscal Period';</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>fiscal_period number(2,0),</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3871,7 +4600,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="E17" s="1">
@@ -3888,35 +4617,28 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.reason_code := fflu_data.get_char_field(pc_reason_code);</v>
       </c>
       <c r="L17" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G17,"_field")),"::field_desc::",$A17),"::field_name::",$B17),"::position::",$D17+1),"::length::",$E17),"::required::",IF($F17="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H17),"fflu_data.gc_null_format",CONCATENATE("'",$H17,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_reason_code,90,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M17" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_reason_code constant fflu_common.st_name := 'Reason Code';</v>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>reason_code varchar2(3 char),</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3927,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="E18" s="1">
@@ -3945,35 +4667,28 @@
         <v/>
       </c>
       <c r="J18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.accounting_doc_no := fflu_data.get_number_field(pc_accounting_doc_no);</v>
       </c>
       <c r="L18" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G18,"_field")),"::field_desc::",$A18),"::field_name::",$B18),"::position::",$D18+1),"::length::",$E18),"::required::",IF($F18="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H18),"fflu_data.gc_null_format",CONCATENATE("'",$H18,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_number_field_txt(pc_accounting_doc_no,93,10,fflu_data.gc_null_format,fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_accounting_doc_no constant fflu_common.st_name := 'Accounting Doc No';</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>accounting_doc_no varchar2(10 char),</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3984,7 +4699,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="E19" s="1">
@@ -3997,42 +4712,35 @@
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.fiscal_year := fflu_data.get_number_field(pc_fiscal_year);</v>
       </c>
       <c r="L19" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G19,"_field")),"::field_desc::",$A19),"::field_name::",$B19),"::position::",$D19+1),"::length::",$E19),"::required::",IF($F19="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H19),"fflu_data.gc_null_format",CONCATENATE("'",$H19,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_number_field_txt(pc_fiscal_year,103,4,'9990',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_fiscal_year constant fflu_common.st_name := 'Fiscal Year';</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>fiscal_year number(4,0),</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4043,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="E20" s="1">
@@ -4061,35 +4769,28 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.line_item_no := fflu_data.get_char_field(pc_line_item_no);</v>
       </c>
       <c r="L20" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G20,"_field")),"::field_desc::",$A20),"::field_name::",$B20),"::position::",$D20+1),"::length::",$E20),"::required::",IF($F20="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H20),"fflu_data.gc_null_format",CONCATENATE("'",$H20,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_line_item_no,107,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_line_item_no constant fflu_common.st_name := 'Line Item No';</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>line_item_no varchar2(3),</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4100,7 +4801,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="E21" s="1">
@@ -4117,35 +4818,28 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.bus_partner_ref := fflu_data.get_char_field(pc_bus_partner_ref);</v>
       </c>
       <c r="L21" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G21,"_field")),"::field_desc::",$A21),"::field_name::",$B21),"::position::",$D21+1),"::length::",$E21),"::required::",IF($F21="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H21),"fflu_data.gc_null_format",CONCATENATE("'",$H21,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_bus_partner_ref,110,12,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_bus_partner_ref constant fflu_common.st_name := 'Bus Partner Ref';</v>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>bus_partner_ref varchar2(12 char),</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4156,7 +4850,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="E22" s="1">
@@ -4173,29 +4867,22 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.tax_code := fflu_data.get_char_field(pc_tax_code);</v>
       </c>
       <c r="L22" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G22,"_field")),"::field_desc::",$A22),"::field_name::",$B22),"::position::",$D22+1),"::length::",$E22),"::required::",IF($F22="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H22),"fflu_data.gc_null_format",CONCATENATE("'",$H22,"'"))
-)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>fflu_data.add_char_field_txt(pc_tax_code,122,2,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_tax_code constant fflu_common.st_name := 'Tax Code';</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>tax_code varchar2(2 char),</v>
       </c>
     </row>
@@ -4243,7 +4930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4278,13 +4965,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
@@ -4302,27 +4989,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>185</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B34" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -4349,7 +5036,7 @@
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -4391,7 +5078,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4419,7 +5106,7 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K3" s="8" t="str">
         <f t="shared" ref="K3:K34" ca="1" si="3">SUBSTITUTE(
@@ -4461,7 +5148,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4489,7 +5176,7 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4510,7 +5197,7 @@
     </row>
     <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4538,7 +5225,7 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K5" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4559,7 +5246,7 @@
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4611,7 +5298,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4663,7 +5350,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4691,7 +5378,7 @@
         <v/>
       </c>
       <c r="J8" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K8" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4740,7 +5427,7 @@
         <v/>
       </c>
       <c r="J9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4789,7 +5476,7 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4810,7 +5497,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4838,7 +5525,7 @@
         <v/>
       </c>
       <c r="J11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4859,7 +5546,7 @@
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4887,7 +5574,7 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4936,7 +5623,7 @@
         <v/>
       </c>
       <c r="J13" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4957,7 +5644,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4985,7 +5672,7 @@
         <v/>
       </c>
       <c r="J14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5058,7 +5745,7 @@
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5086,7 +5773,7 @@
         <v/>
       </c>
       <c r="J16" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5135,7 +5822,7 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5184,7 +5871,7 @@
         <v/>
       </c>
       <c r="J18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5205,7 +5892,7 @@
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5233,7 +5920,7 @@
         <v/>
       </c>
       <c r="J19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5254,7 +5941,7 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5282,7 +5969,7 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5303,7 +5990,7 @@
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5331,7 +6018,7 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5352,7 +6039,7 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5380,7 +6067,7 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5401,7 +6088,7 @@
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5429,7 +6116,7 @@
         <v/>
       </c>
       <c r="J23" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5450,7 +6137,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5478,7 +6165,7 @@
         <v/>
       </c>
       <c r="J24" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K24" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5499,7 +6186,7 @@
     </row>
     <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5527,7 +6214,7 @@
         <v/>
       </c>
       <c r="J25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K25" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5548,7 +6235,7 @@
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5576,7 +6263,7 @@
         <v/>
       </c>
       <c r="J26" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K26" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5597,7 +6284,7 @@
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5625,7 +6312,7 @@
         <v/>
       </c>
       <c r="J27" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K27" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5646,7 +6333,7 @@
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5698,7 +6385,7 @@
     </row>
     <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5750,7 +6437,7 @@
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5802,7 +6489,7 @@
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5882,7 +6569,7 @@
         <v/>
       </c>
       <c r="J32" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K32" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5903,7 +6590,7 @@
     </row>
     <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5931,7 +6618,7 @@
         <v/>
       </c>
       <c r="J33" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K33" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5952,7 +6639,7 @@
     </row>
     <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5980,7 +6667,7 @@
         <v/>
       </c>
       <c r="J34" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K34" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6007,7 +6694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -6042,13 +6729,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>279</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -6066,27 +6753,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>185</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="16" t="str">
         <f t="shared" ref="B2:B40" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -6113,7 +6800,7 @@
         <v/>
       </c>
       <c r="J2" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -6127,7 +6814,7 @@
         <v>pv_inbound_rec.ic_record_type := fflu_data.get_char_field(pc_ic_record_type);</v>
       </c>
       <c r="L2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
+        <f t="shared" ref="L2:L40" ca="1" si="2">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -6155,14 +6842,14 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>px_company_code</v>
       </c>
       <c r="C3" s="16" t="str">
-        <f t="shared" ref="C3:C40" si="2">CONCATENATE(IF(LEN(B3)&gt;30,"#",""),LEN(B3))</f>
+        <f t="shared" ref="C3:C40" si="3">CONCATENATE(IF(LEN(B3)&gt;30,"#",""),LEN(B3))</f>
         <v>15</v>
       </c>
       <c r="D3" s="16">
@@ -6183,10 +6870,10 @@
         <v/>
       </c>
       <c r="J3" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K40" ca="1" si="3">SUBSTITUTE(
+        <f t="shared" ref="K3:K40" ca="1" si="4">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -6197,18 +6884,11 @@
         <v>pv_inbound_rec.px_company_code := fflu_data.get_char_field(pc_px_company_code);</v>
       </c>
       <c r="L3" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G3,"_field")),"::field_desc::",$A3),"::field_name::",$B3),"::position::",$D3+1),"::length::",$E3),"::required::",IF($F3="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H3),"fflu_data.gc_null_format",CONCATENATE("'",$H3,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_px_company_code,7,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f t="shared" ref="M3:M40" ca="1" si="4">SUBSTITUTE(
+        <f t="shared" ref="M3:M40" ca="1" si="5">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -6219,24 +6899,24 @@
         <v>pc_px_company_code constant fflu_common.st_name := 'PX Company Code';</v>
       </c>
       <c r="N3" s="8" t="str">
-        <f t="shared" ref="N3:N40" si="5">CONCATENATE(B3," ",J3,",")</f>
+        <f t="shared" ref="N3:N40" si="6">CONCATENATE(B3," ",J3,",")</f>
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>px_division_code</v>
       </c>
       <c r="C4" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D40" si="6">D3+E3</f>
+        <f t="shared" ref="D4:D40" si="7">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="17">
@@ -6253,29 +6933,22 @@
         <v/>
       </c>
       <c r="J4" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.px_division_code := fflu_data.get_char_field(pc_px_division_code);</v>
       </c>
       <c r="L4" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G4,"_field")),"::field_desc::",$A4),"::field_name::",$B4),"::position::",$D4+1),"::length::",$E4),"::required::",IF($F4="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H4),"fflu_data.gc_null_format",CONCATENATE("'",$H4,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_px_division_code,10,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M4" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_px_division_code constant fflu_common.st_name := 'PX Division Code';</v>
       </c>
       <c r="N4" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
@@ -6288,67 +6961,60 @@
         <v>type</v>
       </c>
       <c r="C5" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D5" s="16">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>pv_inbound_rec.type := fflu_data.get_char_field(pc_type);</v>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_type,13,1,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M5" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pc_type constant fflu_common.st_name := 'Type';</v>
+      </c>
+      <c r="N5" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pv_inbound_rec.type := fflu_data.get_char_field(pc_type);</v>
-      </c>
-      <c r="L5" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G5,"_field")),"::field_desc::",$A5),"::field_name::",$B5),"::position::",$D5+1),"::length::",$E5),"::required::",IF($F5="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H5),"fflu_data.gc_null_format",CONCATENATE("'",$H5,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_type,13,1,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
-      </c>
-      <c r="M5" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pc_type constant fflu_common.st_name := 'Type';</v>
-      </c>
-      <c r="N5" s="8" t="str">
-        <f t="shared" si="5"/>
         <v>type varchar2(1 char),</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>document_date</v>
       </c>
       <c r="C6" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="E6" s="17">
@@ -6371,43 +7037,36 @@
         <v>24</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.document_date := fflu_data.get_date_field(pc_document_date);</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G6,"_field")),"::field_desc::",$A6),"::field_name::",$B6),"::position::",$D6+1),"::length::",$E6),"::required::",IF($F6="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H6),"fflu_data.gc_null_format",CONCATENATE("'",$H6,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_document_date,14,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M6" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_document_date constant fflu_common.st_name := 'Document Date';</v>
       </c>
       <c r="N6" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>document_date date,</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>posting_date</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="E7" s="17">
@@ -6430,43 +7089,36 @@
         <v>24</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.posting_date := fflu_data.get_date_field(pc_posting_date);</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G7,"_field")),"::field_desc::",$A7),"::field_name::",$B7),"::position::",$D7+1),"::length::",$E7),"::required::",IF($F7="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H7),"fflu_data.gc_null_format",CONCATENATE("'",$H7,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_posting_date,22,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_posting_date constant fflu_common.st_name := 'Posting Date';</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>posting_date date,</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>claim_date</v>
       </c>
       <c r="C8" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="E8" s="17">
@@ -6489,26 +7141,19 @@
         <v>24</v>
       </c>
       <c r="K8" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.claim_date := fflu_data.get_date_field(pc_claim_date);</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G8,"_field")),"::field_desc::",$A8),"::field_name::",$B8),"::position::",$D8+1),"::length::",$E8),"::required::",IF($F8="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H8),"fflu_data.gc_null_format",CONCATENATE("'",$H8,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_claim_date,30,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_claim_date constant fflu_common.st_name := 'Claim Date';</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>claim_date date,</v>
       </c>
     </row>
@@ -6521,11 +7166,11 @@
         <v>reference</v>
       </c>
       <c r="C9" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="E9" s="17">
@@ -6542,46 +7187,39 @@
         <v/>
       </c>
       <c r="J9" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K9" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.reference := fflu_data.get_char_field(pc_reference);</v>
       </c>
       <c r="L9" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G9,"_field")),"::field_desc::",$A9),"::field_name::",$B9),"::position::",$D9+1),"::length::",$E9),"::required::",IF($F9="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H9),"fflu_data.gc_null_format",CONCATENATE("'",$H9,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_reference,38,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_reference constant fflu_common.st_name := 'Reference';</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>reference varchar2(10 char),</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>document_header_text</v>
       </c>
       <c r="C10" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="E10" s="17">
@@ -6598,46 +7236,39 @@
         <v/>
       </c>
       <c r="J10" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K10" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.document_header_text := fflu_data.get_char_field(pc_document_header_text);</v>
       </c>
       <c r="L10" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G10,"_field")),"::field_desc::",$A10),"::field_name::",$B10),"::position::",$D10+1),"::length::",$E10),"::required::",IF($F10="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H10),"fflu_data.gc_null_format",CONCATENATE("'",$H10,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_document_header_text,48,25,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_document_header_text constant fflu_common.st_name := 'Document Header Text';</v>
       </c>
       <c r="N10" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>document_header_text varchar2(25 char),</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>expenditure_type</v>
       </c>
       <c r="C11" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="E11" s="17">
@@ -6654,46 +7285,39 @@
         <v/>
       </c>
       <c r="J11" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K11" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.expenditure_type := fflu_data.get_char_field(pc_expenditure_type);</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G11,"_field")),"::field_desc::",$A11),"::field_name::",$B11),"::position::",$D11+1),"::length::",$E11),"::required::",IF($F11="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H11),"fflu_data.gc_null_format",CONCATENATE("'",$H11,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_expenditure_type,73,5,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M11" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_expenditure_type constant fflu_common.st_name := 'Expenditure Type';</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>expenditure_type varchar2(5 char),</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>posting_key</v>
       </c>
       <c r="C12" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="E12" s="17">
@@ -6710,46 +7334,39 @@
         <v/>
       </c>
       <c r="J12" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K12" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.posting_key := fflu_data.get_char_field(pc_posting_key);</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G12,"_field")),"::field_desc::",$A12),"::field_name::",$B12),"::position::",$D12+1),"::length::",$E12),"::required::",IF($F12="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H12),"fflu_data.gc_null_format",CONCATENATE("'",$H12,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_posting_key,78,7,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_posting_key constant fflu_common.st_name := 'Posting Key';</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>posting_key varchar2(7 char),</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>account_code</v>
       </c>
       <c r="C13" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="E13" s="17">
@@ -6766,29 +7383,22 @@
         <v/>
       </c>
       <c r="J13" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.account_code := fflu_data.get_char_field(pc_account_code);</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G13,"_field")),"::field_desc::",$A13),"::field_name::",$B13),"::position::",$D13+1),"::length::",$E13),"::required::",IF($F13="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H13),"fflu_data.gc_null_format",CONCATENATE("'",$H13,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_account_code,85,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_account_code constant fflu_common.st_name := 'Account Code';</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>account_code varchar2(10 char),</v>
       </c>
     </row>
@@ -6801,11 +7411,11 @@
         <v>amount</v>
       </c>
       <c r="C14" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="E14" s="17">
@@ -6828,43 +7438,36 @@
         <v>187</v>
       </c>
       <c r="K14" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.amount := fflu_data.get_number_field(pc_amount);</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G14,"_field")),"::field_desc::",$A14),"::field_name::",$B14),"::position::",$D14+1),"::length::",$E14),"::required::",IF($F14="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H14),"fflu_data.gc_null_format",CONCATENATE("'",$H14,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_amount,95,14,'99999999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_amount constant fflu_common.st_name := 'Amount';</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>amount number(14,2),</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>spend_amount</v>
       </c>
       <c r="C15" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="E15" s="17">
@@ -6887,43 +7490,36 @@
         <v>187</v>
       </c>
       <c r="K15" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.spend_amount := fflu_data.get_number_field(pc_spend_amount);</v>
       </c>
       <c r="L15" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G15,"_field")),"::field_desc::",$A15),"::field_name::",$B15),"::position::",$D15+1),"::length::",$E15),"::required::",IF($F15="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H15),"fflu_data.gc_null_format",CONCATENATE("'",$H15,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_spend_amount,109,14,'99999999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_spend_amount constant fflu_common.st_name := 'Spend Amount';</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>spend_amount number(14,2),</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>tax_amount</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="E16" s="17">
@@ -6946,82 +7542,68 @@
         <v>187</v>
       </c>
       <c r="K16" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.tax_amount := fflu_data.get_number_field(pc_tax_amount);</v>
       </c>
       <c r="L16" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G16,"_field")),"::field_desc::",$A16),"::field_name::",$B16),"::position::",$D16+1),"::length::",$E16),"::required::",IF($F16="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H16),"fflu_data.gc_null_format",CONCATENATE("'",$H16,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_tax_amount,123,14,'99999999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_tax_amount constant fflu_common.st_name := 'Tax Amount';</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>tax_amount number(14,2),</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>payment_method</v>
       </c>
       <c r="C17" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D17" s="16">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>pv_inbound_rec.payment_method := fflu_data.get_char_field(pc_payment_method);</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_payment_method,137,1,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M17" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pc_payment_method constant fflu_common.st_name := 'Payment Method';</v>
+      </c>
+      <c r="N17" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>136</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K17" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pv_inbound_rec.payment_method := fflu_data.get_char_field(pc_payment_method);</v>
-      </c>
-      <c r="L17" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G17,"_field")),"::field_desc::",$A17),"::field_name::",$B17),"::position::",$D17+1),"::length::",$E17),"::required::",IF($F17="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H17),"fflu_data.gc_null_format",CONCATENATE("'",$H17,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_payment_method,137,1,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
-      </c>
-      <c r="M17" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pc_payment_method constant fflu_common.st_name := 'Payment Method';</v>
-      </c>
-      <c r="N17" s="8" t="str">
-        <f t="shared" si="5"/>
         <v>payment_method varchar2(1 char),</v>
       </c>
     </row>
@@ -7034,11 +7616,11 @@
         <v>allocation</v>
       </c>
       <c r="C18" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="E18" s="17">
@@ -7055,46 +7637,39 @@
         <v/>
       </c>
       <c r="J18" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K18" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.allocation := fflu_data.get_char_field(pc_allocation);</v>
       </c>
       <c r="L18" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G18,"_field")),"::field_desc::",$A18),"::field_name::",$B18),"::position::",$D18+1),"::length::",$E18),"::required::",IF($F18="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H18),"fflu_data.gc_null_format",CONCATENATE("'",$H18,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_allocation,138,12,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_allocation constant fflu_common.st_name := 'Allocation';</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>allocation varchar2(12 char),</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>pc_reference</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="E19" s="17">
@@ -7111,46 +7686,39 @@
         <v/>
       </c>
       <c r="J19" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.pc_reference := fflu_data.get_char_field(pc_pc_reference);</v>
       </c>
       <c r="L19" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G19,"_field")),"::field_desc::",$A19),"::field_name::",$B19),"::position::",$D19+1),"::length::",$E19),"::required::",IF($F19="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H19),"fflu_data.gc_null_format",CONCATENATE("'",$H19,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_pc_reference,150,18,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_pc_reference constant fflu_common.st_name := 'PC Reference';</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pc_reference varchar2(18 char),</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>px_reference</v>
       </c>
       <c r="C20" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>167</v>
       </c>
       <c r="E20" s="17">
@@ -7167,46 +7735,39 @@
         <v/>
       </c>
       <c r="J20" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K20" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.px_reference := fflu_data.get_char_field(pc_px_reference);</v>
       </c>
       <c r="L20" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G20,"_field")),"::field_desc::",$A20),"::field_name::",$B20),"::position::",$D20+1),"::length::",$E20),"::required::",IF($F20="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H20),"fflu_data.gc_null_format",CONCATENATE("'",$H20,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_px_reference,168,60,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_px_reference constant fflu_common.st_name := 'PX Reference';</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>px_reference varchar2(60 char),</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ext_reference</v>
       </c>
       <c r="C21" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="E21" s="17">
@@ -7223,46 +7784,39 @@
         <v/>
       </c>
       <c r="J21" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K21" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.ext_reference := fflu_data.get_char_field(pc_ext_reference);</v>
       </c>
       <c r="L21" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G21,"_field")),"::field_desc::",$A21),"::field_name::",$B21),"::position::",$D21+1),"::length::",$E21),"::required::",IF($F21="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H21),"fflu_data.gc_null_format",CONCATENATE("'",$H21,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_ext_reference,228,65,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_ext_reference constant fflu_common.st_name := 'Ext Reference';</v>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ext_reference varchar2(65 char),</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>product_number</v>
       </c>
       <c r="C22" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="E22" s="17">
@@ -7279,46 +7833,39 @@
         <v/>
       </c>
       <c r="J22" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K22" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.product_number := fflu_data.get_char_field(pc_product_number);</v>
       </c>
       <c r="L22" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G22,"_field")),"::field_desc::",$A22),"::field_name::",$B22),"::position::",$D22+1),"::length::",$E22),"::required::",IF($F22="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H22),"fflu_data.gc_null_format",CONCATENATE("'",$H22,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_product_number,293,18,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_product_number constant fflu_common.st_name := 'Product Number';</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>product_number varchar2(18 char),</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>transaction_code</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="E23" s="17">
@@ -7335,46 +7882,39 @@
         <v/>
       </c>
       <c r="J23" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K23" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.transaction_code := fflu_data.get_char_field(pc_transaction_code);</v>
       </c>
       <c r="L23" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G23,"_field")),"::field_desc::",$A23),"::field_name::",$B23),"::position::",$D23+1),"::length::",$E23),"::required::",IF($F23="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H23),"fflu_data.gc_null_format",CONCATENATE("'",$H23,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_transaction_code,311,40,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_transaction_code constant fflu_common.st_name := 'Transaction Code';</v>
       </c>
       <c r="N23" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>transaction_code varchar2(40 char),</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>deduction_ac_code</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="E24" s="17">
@@ -7391,46 +7931,39 @@
         <v/>
       </c>
       <c r="J24" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K24" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.deduction_ac_code := fflu_data.get_char_field(pc_deduction_ac_code);</v>
       </c>
       <c r="L24" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G24,"_field")),"::field_desc::",$A24),"::field_name::",$B24),"::position::",$D24+1),"::length::",$E24),"::required::",IF($F24="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H24),"fflu_data.gc_null_format",CONCATENATE("'",$H24,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_deduction_ac_code,351,20,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_deduction_ac_code constant fflu_common.st_name := 'Deduction AC Code';</v>
       </c>
       <c r="N24" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>deduction_ac_code varchar2(20 char),</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>payee_code</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="E25" s="17">
@@ -7447,46 +7980,39 @@
         <v/>
       </c>
       <c r="J25" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K25" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.payee_code := fflu_data.get_char_field(pc_payee_code);</v>
       </c>
       <c r="L25" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G25,"_field")),"::field_desc::",$A25),"::field_name::",$B25),"::position::",$D25+1),"::length::",$E25),"::required::",IF($F25="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H25),"fflu_data.gc_null_format",CONCATENATE("'",$H25,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_payee_code,371,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_payee_code constant fflu_common.st_name := 'Payee Code';</v>
       </c>
       <c r="N25" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>payee_code varchar2(10 char),</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>debit_code</v>
       </c>
       <c r="C26" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="E26" s="17">
@@ -7503,46 +8029,39 @@
         <v/>
       </c>
       <c r="J26" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K26" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.debit_code := fflu_data.get_char_field(pc_debit_code);</v>
       </c>
       <c r="L26" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G26,"_field")),"::field_desc::",$A26),"::field_name::",$B26),"::position::",$D26+1),"::length::",$E26),"::required::",IF($F26="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H26),"fflu_data.gc_null_format",CONCATENATE("'",$H26,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_debit_code,381,20,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_debit_code constant fflu_common.st_name := 'Debit Code';</v>
       </c>
       <c r="N26" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>debit_code varchar2(20 char),</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>credit_code</v>
       </c>
       <c r="C27" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E27" s="17">
@@ -7559,85 +8078,71 @@
         <v/>
       </c>
       <c r="J27" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K27" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.credit_code := fflu_data.get_char_field(pc_credit_code);</v>
       </c>
       <c r="L27" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G27,"_field")),"::field_desc::",$A27),"::field_name::",$B27),"::position::",$D27+1),"::length::",$E27),"::required::",IF($F27="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H27),"fflu_data.gc_null_format",CONCATENATE("'",$H27,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_credit_code,401,20,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_credit_code constant fflu_common.st_name := 'Credit Code';</v>
       </c>
       <c r="N27" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>credit_code varchar2(20 char),</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>customer_is_a_vendor</v>
       </c>
       <c r="C28" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D28" s="16">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>pv_inbound_rec.customer_is_a_vendor := fflu_data.get_char_field(pc_customer_is_a_vendor);</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_customer_is_a_vendor,421,1,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M28" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pc_customer_is_a_vendor constant fflu_common.st_name := 'Customer Is A Vendor';</v>
+      </c>
+      <c r="N28" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pv_inbound_rec.customer_is_a_vendor := fflu_data.get_char_field(pc_customer_is_a_vendor);</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G28,"_field")),"::field_desc::",$A28),"::field_name::",$B28),"::position::",$D28+1),"::length::",$E28),"::required::",IF($F28="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H28),"fflu_data.gc_null_format",CONCATENATE("'",$H28,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_customer_is_a_vendor,421,1,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
-      </c>
-      <c r="M28" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pc_customer_is_a_vendor constant fflu_common.st_name := 'Customer Is A Vendor';</v>
-      </c>
-      <c r="N28" s="8" t="str">
-        <f t="shared" si="5"/>
         <v>customer_is_a_vendor varchar2(1 char),</v>
       </c>
     </row>
@@ -7650,11 +8155,11 @@
         <v>currency</v>
       </c>
       <c r="C29" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>421</v>
       </c>
       <c r="E29" s="17">
@@ -7671,46 +8176,39 @@
         <v/>
       </c>
       <c r="J29" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K29" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.currency := fflu_data.get_char_field(pc_currency);</v>
       </c>
       <c r="L29" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G29,"_field")),"::field_desc::",$A29),"::field_name::",$B29),"::position::",$D29+1),"::length::",$E29),"::required::",IF($F29="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H29),"fflu_data.gc_null_format",CONCATENATE("'",$H29,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_currency,422,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_currency constant fflu_common.st_name := 'Currency';</v>
       </c>
       <c r="N29" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>promo_claim_detail_row_id</v>
       </c>
       <c r="C30" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>424</v>
       </c>
       <c r="E30" s="17">
@@ -7727,46 +8225,39 @@
         <v/>
       </c>
       <c r="J30" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K30" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.promo_claim_detail_row_id := fflu_data.get_char_field(pc_promo_claim_detail_row_id);</v>
       </c>
       <c r="L30" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G30,"_field")),"::field_desc::",$A30),"::field_name::",$B30),"::position::",$D30+1),"::length::",$E30),"::required::",IF($F30="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H30),"fflu_data.gc_null_format",CONCATENATE("'",$H30,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_promo_claim_detail_row_id,425,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_promo_claim_detail_row_id constant fflu_common.st_name := 'Promo Claim Detail Row ID';</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>promo_claim_detail_row_id varchar2(10 char),</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>promo_claim_group_row_id</v>
       </c>
       <c r="C31" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>434</v>
       </c>
       <c r="E31" s="17">
@@ -7783,46 +8274,39 @@
         <v/>
       </c>
       <c r="J31" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K31" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.promo_claim_group_row_id := fflu_data.get_char_field(pc_promo_claim_group_row_id);</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G31,"_field")),"::field_desc::",$A31),"::field_name::",$B31),"::position::",$D31+1),"::length::",$E31),"::required::",IF($F31="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H31),"fflu_data.gc_null_format",CONCATENATE("'",$H31,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_promo_claim_group_row_id,435,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M31" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_promo_claim_group_row_id constant fflu_common.st_name := 'Promo Claim Group Row ID';</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>promo_claim_group_row_id varchar2(10 char),</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>promo_claim_group_pub_id</v>
       </c>
       <c r="C32" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444</v>
       </c>
       <c r="E32" s="17">
@@ -7839,46 +8323,39 @@
         <v/>
       </c>
       <c r="J32" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K32" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.promo_claim_group_pub_id := fflu_data.get_char_field(pc_promo_claim_group_pub_id);</v>
       </c>
       <c r="L32" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G32,"_field")),"::field_desc::",$A32),"::field_name::",$B32),"::position::",$D32+1),"::length::",$E32),"::required::",IF($F32="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H32),"fflu_data.gc_null_format",CONCATENATE("'",$H32,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_promo_claim_group_pub_id,445,30,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M32" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_promo_claim_group_pub_id constant fflu_common.st_name := 'Promo Claim Group Pub Id';</v>
       </c>
       <c r="N32" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>promo_claim_group_pub_id varchar2(30 char),</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>reason_code</v>
       </c>
       <c r="C33" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D33" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>474</v>
       </c>
       <c r="E33" s="17">
@@ -7895,46 +8372,39 @@
         <v/>
       </c>
       <c r="J33" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K33" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.reason_code := fflu_data.get_char_field(pc_reason_code);</v>
       </c>
       <c r="L33" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G33,"_field")),"::field_desc::",$A33),"::field_name::",$B33),"::position::",$D33+1),"::length::",$E33),"::required::",IF($F33="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H33),"fflu_data.gc_null_format",CONCATENATE("'",$H33,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_reason_code,475,5,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M33" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_reason_code constant fflu_common.st_name := 'Reason Code';</v>
       </c>
       <c r="N33" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>reason_code varchar2(5 char),</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>pc_message</v>
       </c>
       <c r="C34" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D34" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>479</v>
       </c>
       <c r="E34" s="17">
@@ -7951,46 +8421,39 @@
         <v/>
       </c>
       <c r="J34" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K34" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.pc_message := fflu_data.get_char_field(pc_pc_message);</v>
       </c>
       <c r="L34" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G34,"_field")),"::field_desc::",$A34),"::field_name::",$B34),"::position::",$D34+1),"::length::",$E34),"::required::",IF($F34="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H34),"fflu_data.gc_null_format",CONCATENATE("'",$H34,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_pc_message,480,65,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_pc_message constant fflu_common.st_name := 'PC Message';</v>
       </c>
       <c r="N34" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pc_message varchar2(65 char),</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>pc_comment</v>
       </c>
       <c r="C35" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>544</v>
       </c>
       <c r="E35" s="17">
@@ -8007,46 +8470,39 @@
         <v/>
       </c>
       <c r="J35" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K35" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.pc_comment := fflu_data.get_char_field(pc_pc_comment);</v>
       </c>
       <c r="L35" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G35,"_field")),"::field_desc::",$A35),"::field_name::",$B35),"::position::",$D35+1),"::length::",$E35),"::required::",IF($F35="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H35),"fflu_data.gc_null_format",CONCATENATE("'",$H35,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_pc_comment,545,200,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_pc_comment constant fflu_common.st_name := 'PC Comment';</v>
       </c>
       <c r="N35" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>pc_comment varchar2(200 char),</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>text_1</v>
       </c>
       <c r="C36" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>744</v>
       </c>
       <c r="E36" s="17">
@@ -8063,46 +8519,39 @@
         <v/>
       </c>
       <c r="J36" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K36" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.text_1 := fflu_data.get_char_field(pc_text_1);</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G36,"_field")),"::field_desc::",$A36),"::field_name::",$B36),"::position::",$D36+1),"::length::",$E36),"::required::",IF($F36="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H36),"fflu_data.gc_null_format",CONCATENATE("'",$H36,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_text_1,745,40,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_text_1 constant fflu_common.st_name := 'Text 1';</v>
       </c>
       <c r="N36" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>text_1 varchar2(40 char),</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>text_2</v>
       </c>
       <c r="C37" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>784</v>
       </c>
       <c r="E37" s="17">
@@ -8119,46 +8568,39 @@
         <v/>
       </c>
       <c r="J37" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K37" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.text_2 := fflu_data.get_char_field(pc_text_2);</v>
       </c>
       <c r="L37" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G37,"_field")),"::field_desc::",$A37),"::field_name::",$B37),"::position::",$D37+1),"::length::",$E37),"::required::",IF($F37="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H37),"fflu_data.gc_null_format",CONCATENATE("'",$H37,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_text_2,785,40,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_text_2 constant fflu_common.st_name := 'Text 2';</v>
       </c>
       <c r="N37" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>text_2 varchar2(40 char),</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>buy_start_date</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>824</v>
       </c>
       <c r="E38" s="17">
@@ -8181,43 +8623,36 @@
         <v>24</v>
       </c>
       <c r="K38" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.buy_start_date := fflu_data.get_date_field(pc_buy_start_date);</v>
       </c>
       <c r="L38" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G38,"_field")),"::field_desc::",$A38),"::field_name::",$B38),"::position::",$D38+1),"::length::",$E38),"::required::",IF($F38="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H38),"fflu_data.gc_null_format",CONCATENATE("'",$H38,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_buy_start_date,825,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_buy_start_date constant fflu_common.st_name := 'Buy Start Date';</v>
       </c>
       <c r="N38" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>buy_start_date date,</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>buy_stop_date</v>
       </c>
       <c r="C39" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D39" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>832</v>
       </c>
       <c r="E39" s="17">
@@ -8240,43 +8675,36 @@
         <v>24</v>
       </c>
       <c r="K39" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.buy_stop_date := fflu_data.get_date_field(pc_buy_stop_date);</v>
       </c>
       <c r="L39" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G39,"_field")),"::field_desc::",$A39),"::field_name::",$B39),"::position::",$D39+1),"::length::",$E39),"::required::",IF($F39="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H39),"fflu_data.gc_null_format",CONCATENATE("'",$H39,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_buy_stop_date,833,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_buy_stop_date constant fflu_common.st_name := 'Buy Stop Date';</v>
       </c>
       <c r="N39" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>buy_stop_date date,</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v>bom_header_sku_stock_code</v>
       </c>
       <c r="C40" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D40" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="E40" s="17">
@@ -8293,29 +8721,22 @@
         <v/>
       </c>
       <c r="J40" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K40" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>pv_inbound_rec.bom_header_sku_stock_code := fflu_data.get_char_field(pc_bom_header_sku_stock_code);</v>
       </c>
       <c r="L40" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G40,"_field")),"::field_desc::",$A40),"::field_name::",$B40),"::position::",$D40+1),"::length::",$E40),"::required::",IF($F40="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H40),"fflu_data.gc_null_format",CONCATENATE("'",$H40,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_bom_header_sku_stock_code,841,40,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pc_bom_header_sku_stock_code constant fflu_common.st_name := 'BOM Header Sku Stock Code';</v>
       </c>
       <c r="N40" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>bom_header_sku_stock_code varchar2(40 char),</v>
       </c>
     </row>
@@ -8324,18 +8745,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8359,13 +8780,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>279</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -8383,27 +8804,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>185</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B31" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -8426,11 +8847,11 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I31" si="1">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
+        <f t="shared" ref="I2:I40" si="1">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -8444,7 +8865,7 @@
         <v>pv_inbound_rec.ic_record_type := fflu_data.get_char_field(pc_ic_record_type);</v>
       </c>
       <c r="L2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
+        <f t="shared" ref="L2:L40" ca="1" si="2">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -8472,18 +8893,18 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>px_company_code</v>
       </c>
       <c r="C3" s="16" t="str">
-        <f t="shared" ref="C3:C31" si="2">CONCATENATE(IF(LEN(B3)&gt;30,"#",""),LEN(B3))</f>
+        <f t="shared" ref="C3:C31" si="3">CONCATENATE(IF(LEN(B3)&gt;30,"#",""),LEN(B3))</f>
         <v>15</v>
       </c>
       <c r="D3" s="16">
-        <f t="shared" ref="D3:D31" si="3">D2+E2</f>
+        <f t="shared" ref="D3:D31" si="4">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="17">
@@ -8500,10 +8921,10 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K31" ca="1" si="4">SUBSTITUTE(
+        <f t="shared" ref="K3:K40" ca="1" si="5">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -8514,18 +8935,11 @@
         <v>pv_inbound_rec.px_company_code := fflu_data.get_char_field(pc_px_company_code);</v>
       </c>
       <c r="L3" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G3,"_field")),"::field_desc::",$A3),"::field_name::",$B3),"::position::",$D3+1),"::length::",$E3),"::required::",IF($F3="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H3),"fflu_data.gc_null_format",CONCATENATE("'",$H3,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_px_company_code,7,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M3" s="8" t="str">
-        <f t="shared" ref="M3:M31" ca="1" si="5">SUBSTITUTE(
+        <f t="shared" ref="M3:M40" ca="1" si="6">SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -8536,24 +8950,24 @@
         <v>pc_px_company_code constant fflu_common.st_name := 'PX Company Code';</v>
       </c>
       <c r="N3" s="8" t="str">
-        <f t="shared" ref="N3:N31" si="6">CONCATENATE(B3," ",J3,",")</f>
+        <f t="shared" ref="N3:N31" si="7">CONCATENATE(B3," ",J3,",")</f>
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>px_division_code</v>
       </c>
       <c r="C4" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E4" s="17">
@@ -8570,29 +8984,22 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.px_division_code := fflu_data.get_char_field(pc_px_division_code);</v>
       </c>
       <c r="L4" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G4,"_field")),"::field_desc::",$A4),"::field_name::",$B4),"::position::",$D4+1),"::length::",$E4),"::required::",IF($F4="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H4),"fflu_data.gc_null_format",CONCATENATE("'",$H4,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_px_division_code,10,3,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M4" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_px_division_code constant fflu_common.st_name := 'PX Division Code';</v>
       </c>
       <c r="N4" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
@@ -8605,18 +9012,18 @@
         <v>customer_hierarchy</v>
       </c>
       <c r="C5" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E5" s="17">
         <v>10</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>1</v>
@@ -8626,46 +9033,39 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K5" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.customer_hierarchy := fflu_data.get_char_field(pc_customer_hierarchy);</v>
       </c>
       <c r="L5" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G5,"_field")),"::field_desc::",$A5),"::field_name::",$B5),"::position::",$D5+1),"::length::",$E5),"::required::",IF($F5="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H5),"fflu_data.gc_null_format",CONCATENATE("'",$H5,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_customer_hierarchy,13,10,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_customer_hierarchy,13,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M5" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_customer_hierarchy constant fflu_common.st_name := 'Customer Hierarchy';</v>
       </c>
       <c r="N5" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>customer_hierarchy varchar2(10 char),</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>sales_deal</v>
       </c>
       <c r="C6" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E6" s="17">
@@ -8682,29 +9082,22 @@
         <v/>
       </c>
       <c r="J6" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K6" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.sales_deal := fflu_data.get_char_field(pc_sales_deal);</v>
       </c>
       <c r="L6" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G6,"_field")),"::field_desc::",$A6),"::field_name::",$B6),"::position::",$D6+1),"::length::",$E6),"::required::",IF($F6="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H6),"fflu_data.gc_null_format",CONCATENATE("'",$H6,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_sales_deal,23,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M6" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_sales_deal constant fflu_common.st_name := 'Sales Deal';</v>
       </c>
       <c r="N6" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>sales_deal varchar2(10 char),</v>
       </c>
     </row>
@@ -8717,18 +9110,18 @@
         <v>material</v>
       </c>
       <c r="C7" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="E7" s="17">
         <v>18</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>1</v>
@@ -8738,46 +9131,39 @@
         <v/>
       </c>
       <c r="J7" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.material := fflu_data.get_char_field(pc_material);</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G7,"_field")),"::field_desc::",$A7),"::field_name::",$B7),"::position::",$D7+1),"::length::",$E7),"::required::",IF($F7="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H7),"fflu_data.gc_null_format",CONCATENATE("'",$H7,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_material,33,18,fflu_data.gc_null_min_length,fflu_data.gc_not_allow_null,fflu_data.gc_trim);</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_material,33,18,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M7" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_material constant fflu_common.st_name := 'Material';</v>
       </c>
       <c r="N7" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>material varchar2(18 char),</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>buy_start_date</v>
       </c>
       <c r="C8" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E8" s="17">
@@ -8800,43 +9186,36 @@
         <v>24</v>
       </c>
       <c r="K8" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.buy_start_date := fflu_data.get_date_field(pc_buy_start_date);</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G8,"_field")),"::field_desc::",$A8),"::field_name::",$B8),"::position::",$D8+1),"::length::",$E8),"::required::",IF($F8="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H8),"fflu_data.gc_null_format",CONCATENATE("'",$H8,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_buy_start_date,51,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_buy_start_date constant fflu_common.st_name := 'Buy Start Date';</v>
       </c>
       <c r="N8" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>buy_start_date date,</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>buy_stop_date</v>
       </c>
       <c r="C9" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="E9" s="17">
@@ -8859,43 +9238,36 @@
         <v>24</v>
       </c>
       <c r="K9" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.buy_stop_date := fflu_data.get_date_field(pc_buy_stop_date);</v>
       </c>
       <c r="L9" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G9,"_field")),"::field_desc::",$A9),"::field_name::",$B9),"::position::",$D9+1),"::length::",$E9),"::required::",IF($F9="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H9),"fflu_data.gc_null_format",CONCATENATE("'",$H9,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_date_field_txt(pc_buy_stop_date,59,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_buy_stop_date constant fflu_common.st_name := 'Buy Stop Date';</v>
       </c>
       <c r="N9" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>buy_stop_date date,</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>transaction_code</v>
       </c>
       <c r="C10" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="E10" s="17">
@@ -8912,29 +9284,22 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K10" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.transaction_code := fflu_data.get_char_field(pc_transaction_code);</v>
       </c>
       <c r="L10" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G10,"_field")),"::field_desc::",$A10),"::field_name::",$B10),"::position::",$D10+1),"::length::",$E10),"::required::",IF($F10="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H10),"fflu_data.gc_null_format",CONCATENATE("'",$H10,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_transaction_code,67,4,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_transaction_code constant fflu_common.st_name := 'Transaction Code';</v>
       </c>
       <c r="N10" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>transaction_code varchar2(4 char),</v>
       </c>
     </row>
@@ -8947,11 +9312,11 @@
         <v>description</v>
       </c>
       <c r="C11" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="E11" s="17">
@@ -8968,46 +9333,39 @@
         <v/>
       </c>
       <c r="J11" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K11" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.description := fflu_data.get_char_field(pc_description);</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G11,"_field")),"::field_desc::",$A11),"::field_name::",$B11),"::position::",$D11+1),"::length::",$E11),"::required::",IF($F11="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H11),"fflu_data.gc_null_format",CONCATENATE("'",$H11,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_description,71,40,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M11" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_description constant fflu_common.st_name := 'Description';</v>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>description varchar2(40 char),</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>sales_org</v>
       </c>
       <c r="C12" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="E12" s="17">
@@ -9024,29 +9382,22 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K12" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.sales_org := fflu_data.get_char_field(pc_sales_org);</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G12,"_field")),"::field_desc::",$A12),"::field_name::",$B12),"::position::",$D12+1),"::length::",$E12),"::required::",IF($F12="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H12),"fflu_data.gc_null_format",CONCATENATE("'",$H12,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_sales_org,111,4,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_sales_org constant fflu_common.st_name := 'Sales Org';</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>sales_org varchar2(4 char),</v>
       </c>
     </row>
@@ -9059,11 +9410,11 @@
         <v>rate</v>
       </c>
       <c r="C13" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="E13" s="17">
@@ -9086,43 +9437,36 @@
         <v>188</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.rate := fflu_data.get_number_field(pc_rate);</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G13,"_field")),"::field_desc::",$A13),"::field_name::",$B13),"::position::",$D13+1),"::length::",$E13),"::required::",IF($F13="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H13),"fflu_data.gc_null_format",CONCATENATE("'",$H13,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_rate,115,12,'999999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_rate constant fflu_common.st_name := 'Rate';</v>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>rate number(12,2),</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>user_1</v>
       </c>
       <c r="C14" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="E14" s="17">
@@ -9139,46 +9483,39 @@
         <v/>
       </c>
       <c r="J14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.user_1 := fflu_data.get_char_field(pc_user_1);</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G14,"_field")),"::field_desc::",$A14),"::field_name::",$B14),"::position::",$D14+1),"::length::",$E14),"::required::",IF($F14="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H14),"fflu_data.gc_null_format",CONCATENATE("'",$H14,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_user_1,127,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_user_1 constant fflu_common.st_name := 'User 1';</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>user_1 varchar2(10 char),</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>user_2</v>
       </c>
       <c r="C15" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="E15" s="17">
@@ -9195,46 +9532,39 @@
         <v/>
       </c>
       <c r="J15" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K15" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.user_2 := fflu_data.get_char_field(pc_user_2);</v>
       </c>
       <c r="L15" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G15,"_field")),"::field_desc::",$A15),"::field_name::",$B15),"::position::",$D15+1),"::length::",$E15),"::required::",IF($F15="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H15),"fflu_data.gc_null_format",CONCATENATE("'",$H15,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_user_2,137,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_user_2 constant fflu_common.st_name := 'User 2';</v>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>user_2 varchar2(10 char),</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>action_code</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="E16" s="17">
@@ -9251,46 +9581,39 @@
         <v/>
       </c>
       <c r="J16" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K16" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.action_code := fflu_data.get_char_field(pc_action_code);</v>
       </c>
       <c r="L16" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G16,"_field")),"::field_desc::",$A16),"::field_name::",$B16),"::position::",$D16+1),"::length::",$E16),"::required::",IF($F16="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H16),"fflu_data.gc_null_format",CONCATENATE("'",$H16,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_action_code,147,1,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_action_code constant fflu_common.st_name := 'Action Code';</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>action_code varchar2(1 char),</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>bonus_stock_description</v>
       </c>
       <c r="C17" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="E17" s="17">
@@ -9307,46 +9630,39 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K17" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.bonus_stock_description := fflu_data.get_char_field(pc_bonus_stock_description);</v>
       </c>
       <c r="L17" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G17,"_field")),"::field_desc::",$A17),"::field_name::",$B17),"::position::",$D17+1),"::length::",$E17),"::required::",IF($F17="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H17),"fflu_data.gc_null_format",CONCATENATE("'",$H17,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_bonus_stock_description,148,100,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M17" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_bonus_stock_description constant fflu_common.st_name := 'Bonus Stock Description';</v>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>bonus_stock_description varchar2(100 char),</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>bonus_stock_hurdle</v>
       </c>
       <c r="C18" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="E18" s="17">
@@ -9369,43 +9685,36 @@
         <v>189</v>
       </c>
       <c r="K18" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.bonus_stock_hurdle := fflu_data.get_number_field(pc_bonus_stock_hurdle);</v>
       </c>
       <c r="L18" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G18,"_field")),"::field_desc::",$A18),"::field_name::",$B18),"::position::",$D18+1),"::length::",$E18),"::required::",IF($F18="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H18),"fflu_data.gc_null_format",CONCATENATE("'",$H18,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_bonus_stock_hurdle,248,9,'999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_bonus_stock_hurdle constant fflu_common.st_name := 'Bonus Stock Hurdle';</v>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>bonus_stock_hurdle number(9,2),</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>bonus_stock_receive</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="E19" s="17">
@@ -9428,43 +9737,36 @@
         <v>189</v>
       </c>
       <c r="K19" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.bonus_stock_receive := fflu_data.get_number_field(pc_bonus_stock_receive);</v>
       </c>
       <c r="L19" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G19,"_field")),"::field_desc::",$A19),"::field_name::",$B19),"::position::",$D19+1),"::length::",$E19),"::required::",IF($F19="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H19),"fflu_data.gc_null_format",CONCATENATE("'",$H19,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_number_field_txt(pc_bonus_stock_receive,257,9,'999999.99',fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_bonus_stock_receive constant fflu_common.st_name := 'Bonus Stock Receive';</v>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>bonus_stock_receive number(9,2),</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>bonus_stock_sku_code</v>
       </c>
       <c r="C20" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="E20" s="17">
@@ -9481,46 +9783,39 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K20" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.bonus_stock_sku_code := fflu_data.get_char_field(pc_bonus_stock_sku_code);</v>
       </c>
       <c r="L20" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G20,"_field")),"::field_desc::",$A20),"::field_name::",$B20),"::position::",$D20+1),"::length::",$E20),"::required::",IF($F20="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H20),"fflu_data.gc_null_format",CONCATENATE("'",$H20,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_bonus_stock_sku_code,266,18,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_bonus_stock_sku_code constant fflu_common.st_name := 'Bonus Stock SKU Code';</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>bonus_stock_sku_code varchar2(18 char),</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>rate_unit</v>
       </c>
       <c r="C21" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="E21" s="17">
@@ -9537,46 +9832,39 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K21" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.rate_unit := fflu_data.get_char_field(pc_rate_unit);</v>
       </c>
       <c r="L21" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G21,"_field")),"::field_desc::",$A21),"::field_name::",$B21),"::position::",$D21+1),"::length::",$E21),"::required::",IF($F21="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H21),"fflu_data.gc_null_format",CONCATENATE("'",$H21,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_rate_unit,284,5,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_rate_unit constant fflu_common.st_name := 'Rate Unit';</v>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>rate_unit varchar2(5 char),</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>condition_pricing_unit</v>
       </c>
       <c r="C22" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="E22" s="17">
@@ -9593,46 +9881,39 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K22" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.condition_pricing_unit := fflu_data.get_char_field(pc_condition_pricing_unit);</v>
       </c>
       <c r="L22" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G22,"_field")),"::field_desc::",$A22),"::field_name::",$B22),"::position::",$D22+1),"::length::",$E22),"::required::",IF($F22="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H22),"fflu_data.gc_null_format",CONCATENATE("'",$H22,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_condition_pricing_unit,289,5,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_condition_pricing_unit constant fflu_common.st_name := 'Condition Pricing Unit';</v>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>condition_pricing_unit varchar2(5 char),</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>condition_uom</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="E23" s="17">
@@ -9649,46 +9930,39 @@
         <v/>
       </c>
       <c r="J23" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K23" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.condition_uom := fflu_data.get_char_field(pc_condition_uom);</v>
       </c>
       <c r="L23" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G23,"_field")),"::field_desc::",$A23),"::field_name::",$B23),"::position::",$D23+1),"::length::",$E23),"::required::",IF($F23="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H23),"fflu_data.gc_null_format",CONCATENATE("'",$H23,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_condition_uom,294,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_condition_uom constant fflu_common.st_name := 'Condition UOM';</v>
       </c>
       <c r="N23" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>condition_uom varchar2(3 char),</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>sap_promo_number</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="E24" s="17">
@@ -9705,29 +9979,22 @@
         <v/>
       </c>
       <c r="J24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K24" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.sap_promo_number := fflu_data.get_char_field(pc_sap_promo_number);</v>
       </c>
       <c r="L24" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G24,"_field")),"::field_desc::",$A24),"::field_name::",$B24),"::position::",$D24+1),"::length::",$E24),"::required::",IF($F24="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H24),"fflu_data.gc_null_format",CONCATENATE("'",$H24,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_sap_promo_number,297,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_sap_promo_number constant fflu_common.st_name := 'SAP Promo Number';</v>
       </c>
       <c r="N24" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>sap_promo_number varchar2(10 char),</v>
       </c>
     </row>
@@ -9740,11 +10007,11 @@
         <v>currency</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="E25" s="17">
@@ -9761,46 +10028,39 @@
         <v/>
       </c>
       <c r="J25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K25" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.currency := fflu_data.get_char_field(pc_currency);</v>
       </c>
       <c r="L25" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G25,"_field")),"::field_desc::",$A25),"::field_name::",$B25),"::position::",$D25+1),"::length::",$E25),"::required::",IF($F25="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H25),"fflu_data.gc_null_format",CONCATENATE("'",$H25,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_currency,307,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_currency constant fflu_common.st_name := 'Currency';</v>
       </c>
       <c r="N25" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>uom_str_unit</v>
       </c>
       <c r="C26" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="E26" s="17">
@@ -9817,46 +10077,39 @@
         <v/>
       </c>
       <c r="J26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K26" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.uom_str_unit := fflu_data.get_char_field(pc_uom_str_unit);</v>
       </c>
       <c r="L26" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G26,"_field")),"::field_desc::",$A26),"::field_name::",$B26),"::position::",$D26+1),"::length::",$E26),"::required::",IF($F26="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H26),"fflu_data.gc_null_format",CONCATENATE("'",$H26,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_uom_str_unit,310,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_uom_str_unit constant fflu_common.st_name := 'UOM Str Unit';</v>
       </c>
       <c r="N26" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>uom_str_unit varchar2(3 char),</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>uom_str_saleable</v>
       </c>
       <c r="C27" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="E27" s="17">
@@ -9873,46 +10126,39 @@
         <v/>
       </c>
       <c r="J27" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K27" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.uom_str_saleable := fflu_data.get_char_field(pc_uom_str_saleable);</v>
       </c>
       <c r="L27" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G27,"_field")),"::field_desc::",$A27),"::field_name::",$B27),"::position::",$D27+1),"::length::",$E27),"::required::",IF($F27="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H27),"fflu_data.gc_null_format",CONCATENATE("'",$H27,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_uom_str_saleable,313,3,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_uom_str_saleable constant fflu_common.st_name := 'UOM Str Saleable';</v>
       </c>
       <c r="N27" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>uom_str_saleable varchar2(3 char),</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>promo_price_saleable</v>
       </c>
       <c r="C28" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="E28" s="17">
@@ -9929,46 +10175,39 @@
         <v/>
       </c>
       <c r="J28" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K28" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.promo_price_saleable := fflu_data.get_char_field(pc_promo_price_saleable);</v>
       </c>
       <c r="L28" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G28,"_field")),"::field_desc::",$A28),"::field_name::",$B28),"::position::",$D28+1),"::length::",$E28),"::required::",IF($F28="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H28),"fflu_data.gc_null_format",CONCATENATE("'",$H28,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_promo_price_saleable,316,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M28" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_promo_price_saleable constant fflu_common.st_name := 'Promo Price Saleable';</v>
       </c>
       <c r="N28" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>promo_price_saleable varchar2(10 char),</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>promo_price_unit</v>
       </c>
       <c r="C29" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
       <c r="E29" s="17">
@@ -9985,46 +10224,39 @@
         <v/>
       </c>
       <c r="J29" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K29" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.promo_price_unit := fflu_data.get_char_field(pc_promo_price_unit);</v>
       </c>
       <c r="L29" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G29,"_field")),"::field_desc::",$A29),"::field_name::",$B29),"::position::",$D29+1),"::length::",$E29),"::required::",IF($F29="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H29),"fflu_data.gc_null_format",CONCATENATE("'",$H29,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_promo_price_unit,326,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_promo_price_unit constant fflu_common.st_name := 'Promo Price Unit';</v>
       </c>
       <c r="N29" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>promo_price_unit varchar2(10 char),</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>transaction_amount</v>
       </c>
       <c r="C30" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>335</v>
       </c>
       <c r="E30" s="17">
@@ -10041,50 +10273,43 @@
         <v/>
       </c>
       <c r="J30" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K30" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.transaction_amount := fflu_data.get_char_field(pc_transaction_amount);</v>
       </c>
       <c r="L30" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G30,"_field")),"::field_desc::",$A30),"::field_name::",$B30),"::position::",$D30+1),"::length::",$E30),"::required::",IF($F30="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H30),"fflu_data.gc_null_format",CONCATENATE("'",$H30,"'"))
-)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>fflu_data.add_char_field_txt(pc_transaction_amount,336,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_transaction_amount constant fflu_common.st_name := 'Transaction Amount';</v>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>transaction_amount varchar2(10 char),</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>payer_code</v>
       </c>
       <c r="C31" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="E31" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>0</v>
@@ -10097,63 +10322,406 @@
         <v/>
       </c>
       <c r="J31" s="1" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="K31" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>pv_inbound_rec.payer_code := fflu_data.get_char_field(pc_payer_code);</v>
       </c>
       <c r="L31" s="8" t="str">
-        <f ca="1">SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-SUBSTITUTE(
-INDIRECT(CONCATENATE("add_",$G31,"_field")),"::field_desc::",$A31),"::field_name::",$B31),"::position::",$D31+1),"::length::",$E31),"::required::",IF($F31="Yes","fflu_data.gc_not_allow_null","fflu_data.gc_allow_null")),"::format::",IF(ISBLANK($H31),"fflu_data.gc_null_format",CONCATENATE("'",$H31,"'"))
-)</f>
-        <v>fflu_data.add_char_field_txt(pc_payer_code,346,10,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_payer_code,346,20,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
       </c>
       <c r="M31" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>pc_payer_code constant fflu_common.st_name := 'Payer Code';</v>
       </c>
       <c r="N31" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>payer_code varchar2(10 char),</v>
+        <f t="shared" si="7"/>
+        <v>payer_code varchar2(20 char),</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="I32" s="7" t="str">
-        <f>IF(ISBLANK(H32),"",CONCATENATE(IF(LEN(H32)&lt;&gt;E32,"#",""),LEN(H32)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="9:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f t="shared" ref="B33:B40" si="8">LOWER(SUBSTITUTE(A33," ", "_"))</f>
+        <v>condition_flag</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f t="shared" ref="C33:C40" si="9">CONCATENATE(IF(LEN(B33)&gt;30,"#",""),LEN(B33))</f>
+        <v>14</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" ref="D33:D40" si="10">D32+E32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="I33" s="7" t="str">
-        <f>IF(ISBLANK(H33),"",CONCATENATE(IF(LEN(H33)&lt;&gt;E33,"#",""),LEN(H33)))</f>
-        <v/>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="9:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K33" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.condition_flag := fflu_data.get_char_field(pc_condition_flag);</v>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_condition_flag,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M33" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_condition_flag constant fflu_common.st_name := 'Condition Flag';</v>
+      </c>
+      <c r="N33" s="8" t="str">
+        <f t="shared" ref="N33:N40" si="11">CONCATENATE(B33," ",J33,",")</f>
+        <v>condition_flag varchar2(1 char),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>business_segment</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="I34" s="7" t="str">
-        <f>IF(ISBLANK(H34),"",CONCATENATE(IF(LEN(H34)&lt;&gt;E34,"#",""),LEN(H34)))</f>
-        <v/>
-      </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="9:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="I35" s="8"/>
-      <c r="K35" s="8"/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.business_segment := fflu_data.get_char_field(pc_business_segment);</v>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_business_segment,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M34" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_business_segment constant fflu_common.st_name := 'Business Segment';</v>
+      </c>
+      <c r="N34" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>business_segment varchar2(2 char),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>rate_multiplier</v>
+      </c>
+      <c r="C35" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K35" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.rate_multiplier := fflu_data.get_number_field(pc_rate_multiplier);</v>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_number_field_txt(pc_rate_multiplier,1,,fflu_data.gc_null_format,fflu_data.gc_null_min_number,fflu_data.gc_null_max_number,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
+      </c>
+      <c r="M35" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_rate_multiplier constant fflu_common.st_name := 'Rate Multiplier';</v>
+      </c>
+      <c r="N35" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>rate_multiplier number(4),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>condition_type_code</v>
+      </c>
+      <c r="C36" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.condition_type_code := fflu_data.get_char_field(pc_condition_type_code);</v>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_condition_type_code,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M36" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_condition_type_code constant fflu_common.st_name := 'Condition Type Code';</v>
+      </c>
+      <c r="N36" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>condition_type_code varchar2(1 char),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>pricing_condition_code</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.pricing_condition_code := fflu_data.get_char_field(pc_pricing_condition_code);</v>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_pricing_condition_code,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M37" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_pricing_condition_code constant fflu_common.st_name := 'Pricing Condition Code';</v>
+      </c>
+      <c r="N37" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>pricing_condition_code varchar2(4 char),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>condition_table_ref</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.condition_table_ref := fflu_data.get_char_field(pc_condition_table_ref);</v>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_condition_table_ref,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M38" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_condition_table_ref constant fflu_common.st_name := 'Condition Table Ref';</v>
+      </c>
+      <c r="N38" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>condition_table_ref varchar2(5 char),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>cust_div_code</v>
+      </c>
+      <c r="C39" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.cust_div_code := fflu_data.get_char_field(pc_cust_div_code);</v>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_cust_div_code,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M39" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_cust_div_code constant fflu_common.st_name := 'Cust Div Code';</v>
+      </c>
+      <c r="N39" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>cust_div_code varchar2(2 char),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>order_type_code</v>
+      </c>
+      <c r="C40" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>pv_inbound_rec.order_type_code := fflu_data.get_char_field(pc_order_type_code);</v>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>fflu_data.add_char_field_txt(pc_order_type_code,1,,fflu_data.gc_null_min_length,fflu_data.gc_allow_null,fflu_data.gc_trim);</v>
+      </c>
+      <c r="M40" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>pc_order_type_code constant fflu_common.st_name := 'Order Type Code';</v>
+      </c>
+      <c r="N40" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>order_type_code varchar2(4 char),</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10185,7 +10753,7 @@
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10250,63 +10818,63 @@
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -13387,7 +13955,7 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -37,6 +37,8 @@
     <definedName name="get_date_field">Formulas!$B$22</definedName>
     <definedName name="get_numeric_field">Formulas!$B$21</definedName>
     <definedName name="numeric">Formulas!$B$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'FFLU PMXPXI03 - 359PROM'!$A$1:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'PXIATL02 - CISATL14'!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -3018,12 +3020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3684,7 +3685,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6702,10 +6703,10 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8749,14 +8750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10718,6 +10720,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="7" activeTab="10"/>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'FFLU PMXPXI03 - 359PROM'!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'PXIATL02 - CISATL14'!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1385,8 +1385,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,7 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1597,7 +1596,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1773,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1779,7 @@
       <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1799,7 +1797,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>194</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1886,7 +1884,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2002,7 +2000,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2025,7 +2023,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>site_app.pmxpxi03_loader</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2280,7 +2278,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2321,7 +2319,7 @@
         <v>site_app.pmxpxi01_loader</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2350,7 +2348,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2391,7 +2389,7 @@
         <v>site_app.pmxpxi02_loader</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2515,7 +2513,7 @@
         <v>Promax NZ &gt; DFN : Demand : 337 : 337EST</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2581,17 +2579,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="B28" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="B29" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" s="1" t="s">
         <v>237</v>
       </c>
@@ -2603,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2613,10 +2611,10 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -2637,7 +2635,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -2676,7 +2674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -2703,11 +2701,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('336002', 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '336002' -&gt; RecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('336002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '336002' -&gt; RecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2735,11 +2733,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2768,10 +2766,10 @@
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -2800,10 +2798,10 @@
       </c>
       <c r="O5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(invoicenumber, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- invoicenumber -&gt; InvoiceNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(invoicenumber, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- invoicenumber -&gt; InvoiceNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
@@ -2832,10 +2830,10 @@
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(invoicelinenumber, 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- invoicelinenumber -&gt; InvoiceLineNumber</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(invoicelinenumber, 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- invoicelinenumber -&gt; InvoiceLineNumber</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -2868,10 +2866,10 @@
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(customerhierarchy, 8, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- customerhierarchy -&gt; CustomerHierarchy</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(customerhierarchy, 8, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- customerhierarchy -&gt; CustomerHierarchy</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>172</v>
       </c>
@@ -2904,10 +2902,10 @@
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(material, 18, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- material -&gt; Material</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(material, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- material -&gt; Material</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>173</v>
       </c>
@@ -2939,10 +2937,10 @@
       </c>
       <c r="O9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.date_format(invoicedate, 'yyyymmdd', pxi_common.is_not_nullable) || -- invoicedate -&gt; InvoiceDate</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.date_format(invoicedate, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- invoicedate -&gt; InvoiceDate</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
@@ -2974,10 +2972,10 @@
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.numb_format(discountgiven, '9999990.00', pxi_common.is_not_nullable) || -- discountgiven -&gt; DiscountGiven</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.numb_format(discountgiven, '9999990.00', pxi_common.fc_is_not_nullable) || -- discountgiven -&gt; DiscountGiven</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -3007,7 +3005,7 @@
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(conditiontype, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- conditiontype -&gt; ConditionType</v>
+        <v>pxi_common.char_format(conditiontype, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- conditiontype -&gt; ConditionType</v>
       </c>
     </row>
   </sheetData>
@@ -3017,16 +3015,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -3047,7 +3047,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>406</v>
       </c>
@@ -3113,11 +3113,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('A', 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'A' -&gt; UsageConditionCode</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('A', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'A' -&gt; UsageConditionCode</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -3146,11 +3146,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O19" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format(cndtn_table_ref, 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cndtn_table_ref -&gt; CondTable</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O19" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format(cndtn_table_ref, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cndtn_table_ref -&gt; CondTable</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>409</v>
       </c>
@@ -3179,10 +3179,10 @@
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('V', 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'V' -&gt; Application</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('V', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'V' -&gt; Application</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>411</v>
       </c>
@@ -3210,11 +3210,11 @@
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G5,IF(I5="Yes","_CONSTANT","")))), "::source_field::", A5), "::target_field::", C5), "::position::", D5), "::length::", E5), "::format::", H5), "::constant::", J5), "::is_nullable::", IF(F5="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L5), "none", LOWER(L5))))</f>
-        <v>pxi_common.char_format(VAKEY, 50, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- VAKEY -&gt; VAKEY</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(VAKEY, 50, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- VAKEY -&gt; VAKEY</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>412</v>
       </c>
@@ -3243,10 +3243,10 @@
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(px_company_code, 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- px_company_code -&gt; CompanyCode</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(px_company_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- px_company_code -&gt; CompanyCode</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>414</v>
       </c>
@@ -3276,10 +3276,10 @@
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(cust_div_code, 2, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cust_div_code -&gt; Division</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(cust_div_code, 2, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cust_div_code -&gt; Division</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>416</v>
       </c>
@@ -3309,10 +3309,10 @@
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(cust_hier, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- cust_hier -&gt; Customer</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(cust_hier, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cust_hier -&gt; Customer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -3342,10 +3342,10 @@
       </c>
       <c r="O9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(material, 18, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- material -&gt; Material</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(material, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- material -&gt; Material</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>418</v>
       </c>
@@ -3377,10 +3377,10 @@
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.date_format(buy_start_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- buy_start_date -&gt; ValidFrom</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.date_format(buy_start_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- buy_start_date -&gt; ValidFrom</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>420</v>
       </c>
@@ -3412,10 +3412,10 @@
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.date_format(buy_stop_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- buy_stop_date -&gt; ValidTo</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.date_format(buy_stop_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- buy_stop_date -&gt; ValidTo</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>422</v>
       </c>
@@ -3445,10 +3445,10 @@
       </c>
       <c r="O12" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(pricing_cndtn_code, 4, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- pricing_cndtn_code -&gt; Condition</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(pricing_cndtn_code, 4, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- pricing_cndtn_code -&gt; Condition</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>424</v>
       </c>
@@ -3480,10 +3480,10 @@
       </c>
       <c r="O13" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(condition_type_code, 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- condition_type_code -&gt; ConditionType</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(condition_type_code, 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- condition_type_code -&gt; ConditionType</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>425</v>
       </c>
@@ -3515,10 +3515,10 @@
       </c>
       <c r="O14" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.numb_format(rate, 's9999990.00', pxi_common.is_not_nullable) || -- rate -&gt; Rate</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.numb_format(rate, 's9999990.00', pxi_common.fc_is_not_nullable) || -- rate -&gt; Rate</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>427</v>
       </c>
@@ -3548,10 +3548,10 @@
       </c>
       <c r="O15" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(rate_unit, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- rate_unit -&gt; RateUnit</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(rate_unit, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rate_unit -&gt; RateUnit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
@@ -3581,10 +3581,10 @@
       </c>
       <c r="O16" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('EA', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'EA' -&gt; UOM</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('EA', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'EA' -&gt; UOM</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>430</v>
       </c>
@@ -3616,10 +3616,10 @@
       </c>
       <c r="O17" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(sales_deal, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- sales_deal -&gt; PromoNum</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(sales_deal, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- sales_deal -&gt; PromoNum</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>432</v>
       </c>
@@ -3648,10 +3648,10 @@
       </c>
       <c r="O18" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(rate_multiplier, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- rate_multiplier -&gt; PriceUnit</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(rate_multiplier, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rate_multiplier -&gt; PriceUnit</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>434</v>
       </c>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="O19" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(order_type_code, 4, pxi_common.format_type_none, pxi_common.is_nullable) || -- order_type_code -&gt; OrderType</v>
+        <v>pxi_common.char_format(order_type_code, 4, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- order_type_code -&gt; OrderType</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3703,7 +3703,7 @@
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
@@ -3722,7 +3722,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="11.25">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>rec_type varchar2(3 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="11.25">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>idoc_type varchar2(30 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="11.25">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>idoc_no number(16,0),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="11.25">
       <c r="A5" s="1" t="s">
         <v>290</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>idoc_date date,</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="11.25">
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="11.25">
       <c r="A7" s="1" t="s">
         <v>283</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>rec_type varchar2(3 char),</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="11.25">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="11.25">
       <c r="A9" s="1" t="s">
         <v>293</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>div_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="11.25">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>cust_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="11.25">
       <c r="A11" s="1" t="s">
         <v>296</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>claim_amount number(15,4),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="11.25">
       <c r="A12" s="1" t="s">
         <v>299</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>claim_ref varchar2(12 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="11.25">
       <c r="A13" s="1" t="s">
         <v>301</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>assignment_no varchar2(18 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="11.25">
       <c r="A14" s="1" t="s">
         <v>303</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>tax_base number(15,4),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="11.25">
       <c r="A15" s="1" t="s">
         <v>304</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="11.25">
       <c r="A16" s="1" t="s">
         <v>305</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>fiscal_period number(2,0),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="11.25">
       <c r="A17" s="1" t="s">
         <v>308</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>reason_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="11.25">
       <c r="A18" s="1" t="s">
         <v>309</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>accounting_doc_no varchar2(10 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="11.25">
       <c r="A19" s="1" t="s">
         <v>310</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>fiscal_year number(4,0),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="11.25">
       <c r="A20" s="1" t="s">
         <v>313</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>line_item_no varchar2(3),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="11.25">
       <c r="A21" s="1" t="s">
         <v>315</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>bus_partner_ref varchar2(12 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="11.25">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -4887,43 +4887,43 @@
         <v>tax_code varchar2(2 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="11.25">
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="11.25">
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="11.25">
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="11.25">
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="11.25">
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="11.25">
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="11.25">
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="11.25">
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="11.25">
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="11.25">
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11" s="1" customFormat="1" ht="11.25">
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" s="1" customFormat="1" ht="11.25">
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" s="1" customFormat="1" ht="11.25">
       <c r="K35" s="8"/>
     </row>
   </sheetData>
@@ -4932,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4945,7 +4945,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" bestFit="1" customWidth="1"/>
@@ -4964,7 +4964,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="11.25">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="11.25">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="11.25">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="11.25">
       <c r="A5" s="1" t="s">
         <v>283</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>rec_type varchar2(1 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="11.25">
       <c r="A6" s="1" t="s">
         <v>323</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>document_date date,</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="11.25">
       <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="11.25">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>document_type varchar2(2 char),</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="11.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="11.25">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>reference varchar2(16 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="11.25">
       <c r="A11" s="1" t="s">
         <v>326</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>document_header_text varchar2(25 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="11.25">
       <c r="A12" s="1" t="s">
         <v>328</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>posting_key varchar2(4 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="11.25">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>account varchar2(17 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="11.25">
       <c r="A14" s="1" t="s">
         <v>331</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>pa_assignment_flag varchar2(1 char),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="11.25">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>amount number(13,2),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="11.25">
       <c r="A16" s="1" t="s">
         <v>332</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>payment_method varchar2(1 char),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="11.25">
       <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>allocation varchar2(18 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="11.25">
       <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>text varchar2(30 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="11.25">
       <c r="A19" s="1" t="s">
         <v>333</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>profit_centre varchar2(10 char),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="11.25">
       <c r="A20" s="1" t="s">
         <v>334</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>cost_centre varchar2(10 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="11.25">
       <c r="A21" s="1" t="s">
         <v>335</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>sales_organisation varchar2(4 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="11.25">
       <c r="A22" s="1" t="s">
         <v>336</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>sales_office varchar2(5 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="11.25">
       <c r="A23" s="1" t="s">
         <v>338</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>product_number varchar2(18 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="11.25">
       <c r="A24" s="1" t="s">
         <v>339</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>pa_code varchar2(5 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="11.25">
       <c r="A25" s="1" t="s">
         <v>340</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>glt_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="11.25">
       <c r="A26" s="1" t="s">
         <v>341</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>user_1 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="11.25">
       <c r="A27" s="1" t="s">
         <v>342</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>user_2 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="11.25">
       <c r="A28" s="1" t="s">
         <v>343</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="11.25">
       <c r="A29" s="1" t="s">
         <v>344</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="11.25">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="11.25">
       <c r="A31" s="1" t="s">
         <v>346</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>stop_date date,</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="11.25">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>quantity varchar2(15 char),</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="11.25">
       <c r="A33" s="1" t="s">
         <v>348</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>additional_info varchar2(10 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="11.25">
       <c r="A34" s="1" t="s">
         <v>349</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>promotion_is_closed varchar2(1 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="11.25">
       <c r="K35" s="8"/>
     </row>
   </sheetData>
@@ -6696,7 +6696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6709,7 +6709,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="16" bestFit="1" customWidth="1"/>
@@ -6728,7 +6728,7 @@
     <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25">
       <c r="A1" s="16" t="s">
         <v>275</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="11.25">
       <c r="A2" s="17" t="s">
         <v>318</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="11.25">
       <c r="A3" s="17" t="s">
         <v>320</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="11.25">
       <c r="A4" s="17" t="s">
         <v>321</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="11.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>type varchar2(1 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="11.25">
       <c r="A6" s="17" t="s">
         <v>323</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>document_date date,</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="11.25">
       <c r="A7" s="17" t="s">
         <v>304</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="11.25">
       <c r="A8" s="17" t="s">
         <v>350</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>claim_date date,</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="11.25">
       <c r="A9" s="17" t="s">
         <v>141</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>reference varchar2(10 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="11.25">
       <c r="A10" s="17" t="s">
         <v>326</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>document_header_text varchar2(25 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="11.25">
       <c r="A11" s="17" t="s">
         <v>351</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>expenditure_type varchar2(5 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="11.25">
       <c r="A12" s="17" t="s">
         <v>328</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>posting_key varchar2(7 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="11.25">
       <c r="A13" s="17" t="s">
         <v>353</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>account_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="11.25">
       <c r="A14" s="17" t="s">
         <v>148</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>amount number(14,2),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="11.25">
       <c r="A15" s="17" t="s">
         <v>354</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>spend_amount number(14,2),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="11.25">
       <c r="A16" s="17" t="s">
         <v>355</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>tax_amount number(14,2),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="11.25">
       <c r="A17" s="17" t="s">
         <v>332</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>payment_method varchar2(1 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="11.25">
       <c r="A18" s="17" t="s">
         <v>181</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>allocation varchar2(12 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="11.25">
       <c r="A19" s="17" t="s">
         <v>356</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>pc_reference varchar2(18 char),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="11.25">
       <c r="A20" s="17" t="s">
         <v>357</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>px_reference varchar2(60 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="11.25">
       <c r="A21" s="17" t="s">
         <v>359</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>ext_reference varchar2(65 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="11.25">
       <c r="A22" s="17" t="s">
         <v>338</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>product_number varchar2(18 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="11.25">
       <c r="A23" s="17" t="s">
         <v>361</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>transaction_code varchar2(40 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="11.25">
       <c r="A24" s="17" t="s">
         <v>363</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>deduction_ac_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="11.25">
       <c r="A25" s="17" t="s">
         <v>365</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>payee_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="11.25">
       <c r="A26" s="17" t="s">
         <v>366</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>debit_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="11.25">
       <c r="A27" s="17" t="s">
         <v>367</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>credit_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="11.25">
       <c r="A28" s="17" t="s">
         <v>368</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>customer_is_a_vendor varchar2(1 char),</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="11.25">
       <c r="A29" s="17" t="s">
         <v>39</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="11.25">
       <c r="A30" s="17" t="s">
         <v>369</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>promo_claim_detail_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="11.25">
       <c r="A31" s="17" t="s">
         <v>370</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>promo_claim_group_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="11.25">
       <c r="A32" s="17" t="s">
         <v>371</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>promo_claim_group_pub_id varchar2(30 char),</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="11.25">
       <c r="A33" s="17" t="s">
         <v>308</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>reason_code varchar2(5 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="11.25">
       <c r="A34" s="17" t="s">
         <v>372</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>pc_message varchar2(65 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="11.25">
       <c r="A35" s="17" t="s">
         <v>373</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>pc_comment varchar2(200 char),</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="11.25">
       <c r="A36" s="17" t="s">
         <v>375</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>text_1 varchar2(40 char),</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="11.25">
       <c r="A37" s="17" t="s">
         <v>376</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>text_2 varchar2(40 char),</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="11.25">
       <c r="A38" s="17" t="s">
         <v>343</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="11.25">
       <c r="A39" s="17" t="s">
         <v>344</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="11.25">
       <c r="A40" s="17" t="s">
         <v>377</v>
       </c>
@@ -8747,7 +8747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8761,7 +8761,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="8" bestFit="1" customWidth="1"/>
@@ -8780,7 +8780,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="11.25">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="11.25">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="11.25">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="11.25">
       <c r="A5" s="1" t="s">
         <v>210</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>customer_hierarchy varchar2(10 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="11.25">
       <c r="A6" s="1" t="s">
         <v>378</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>sales_deal varchar2(10 char),</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="11.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>material varchar2(18 char),</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="11.25">
       <c r="A8" s="1" t="s">
         <v>343</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="11.25">
       <c r="A9" s="1" t="s">
         <v>344</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="11.25">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>transaction_code varchar2(4 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="11.25">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>description varchar2(40 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="11.25">
       <c r="A12" s="1" t="s">
         <v>379</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>sales_org varchar2(4 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="11.25">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>rate number(12,2),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="11.25">
       <c r="A14" s="1" t="s">
         <v>341</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>user_1 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="11.25">
       <c r="A15" s="1" t="s">
         <v>342</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>user_2 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="11.25">
       <c r="A16" s="1" t="s">
         <v>380</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>action_code varchar2(1 char),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="11.25">
       <c r="A17" s="1" t="s">
         <v>381</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>bonus_stock_description varchar2(100 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="11.25">
       <c r="A18" s="1" t="s">
         <v>383</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>bonus_stock_hurdle number(9,2),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="11.25">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>bonus_stock_receive number(9,2),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="11.25">
       <c r="A20" s="1" t="s">
         <v>385</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>bonus_stock_sku_code varchar2(18 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="11.25">
       <c r="A21" s="1" t="s">
         <v>386</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>rate_unit varchar2(5 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="11.25">
       <c r="A22" s="1" t="s">
         <v>387</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>condition_pricing_unit varchar2(5 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="11.25">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>condition_uom varchar2(3 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="11.25">
       <c r="A24" s="1" t="s">
         <v>389</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>sap_promo_number varchar2(10 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="11.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="11.25">
       <c r="A26" s="1" t="s">
         <v>390</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>uom_str_unit varchar2(3 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="11.25">
       <c r="A27" s="1" t="s">
         <v>391</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>uom_str_saleable varchar2(3 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="11.25">
       <c r="A28" s="1" t="s">
         <v>392</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>promo_price_saleable varchar2(10 char),</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="11.25">
       <c r="A29" s="1" t="s">
         <v>393</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>promo_price_unit varchar2(10 char),</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="11.25">
       <c r="A30" s="1" t="s">
         <v>394</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>transaction_amount varchar2(10 char),</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="11.25">
       <c r="A31" s="1" t="s">
         <v>395</v>
       </c>
@@ -10343,14 +10343,14 @@
         <v>payer_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="11.25">
       <c r="I32" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="11.25">
       <c r="A33" s="1" t="s">
         <v>436</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>condition_flag varchar2(1 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="11.25">
       <c r="A34" s="1" t="s">
         <v>437</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>business_segment varchar2(2 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="11.25">
       <c r="A35" s="1" t="s">
         <v>438</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>rate_multiplier number(4),</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="11.25">
       <c r="A36" s="1" t="s">
         <v>440</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>condition_type_code varchar2(1 char),</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="11.25">
       <c r="A37" s="1" t="s">
         <v>441</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>pricing_condition_code varchar2(4 char),</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="11.25">
       <c r="A38" s="1" t="s">
         <v>442</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>condition_table_ref varchar2(5 char),</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="11.25">
       <c r="A39" s="1" t="s">
         <v>443</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>cust_div_code varchar2(2 char),</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="11.25">
       <c r="A40" s="1" t="s">
         <v>444</v>
       </c>
@@ -10725,7 +10725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10733,17 +10733,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -10751,15 +10751,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="13" customFormat="1">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -10799,32 +10799,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="8" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
         <v>259</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
         <v>261</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
         <v>263</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
         <v>265</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
         <v>267</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
         <v>269</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
         <v>271</v>
       </c>
@@ -10887,20 +10887,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -10921,7 +10921,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -10987,11 +10987,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('302001', 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '302001' -&gt; RecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('302001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '302001' -&gt; RecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -11020,11 +11020,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O22" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11053,11 +11053,11 @@
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G4,IF(I4="Yes","_CONSTANT","")))), "::source_field::", A4), "::target_field::", C4), "::position::", D4), "::length::", E4), "::format::", H4), "::constant::", J4), "::is_nullable::", IF(F4="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L4), "none", LOWER(L4))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -11084,15 +11084,15 @@
         <v>64</v>
       </c>
       <c r="M5" s="7" t="str">
-        <f t="shared" ref="M5:M20" si="2">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
+        <f t="shared" ref="M5:M20" si="3">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ref="O5:O20" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G5,IF(I5="Yes","_CONSTANT","")))), "::source_field::", A5), "::target_field::", C5), "::position::", D5), "::length::", E5), "::format::", H5), "::constant::", J5), "::is_nullable::", IF(F5="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L5), "none", LOWER(L5))))</f>
-        <v>pxi_common.char_format(zrep_matl_code, 18, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- zrep_matl_code -&gt; ProductItemNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(zrep_matl_code, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- zrep_matl_code -&gt; ProductItemNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -11116,15 +11116,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(zrep_matl_desc, 40, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- zrep_matl_desc -&gt; Description</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(zrep_matl_desc, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- zrep_matl_desc -&gt; Description</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
@@ -11148,15 +11148,15 @@
         <v>106</v>
       </c>
       <c r="M7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('1', 2, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '1' -&gt; Status</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('1', 2, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; Status</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -11183,15 +11183,15 @@
         <v>64</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(zrep_matl_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_nullable) || -- zrep_matl_code -&gt; ShortName</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(zrep_matl_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- zrep_matl_code -&gt; ShortName</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -11215,15 +11215,15 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(rsu_ean, 18, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- rsu_ean -&gt; APN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(rsu_ean, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- rsu_ean -&gt; APN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -11247,15 +11247,15 @@
         <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O10" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(tdu_ean, 18, pxi_common.format_type_none, pxi_common.is_nullable) || -- tdu_ean -&gt; TUN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(tdu_ean, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tdu_ean -&gt; TUN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -11279,15 +11279,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(rsu_uom, 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- rsu_uom -&gt; UOM</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(rsu_uom, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rsu_uom -&gt; UOM</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -11312,15 +11312,15 @@
         <v>0</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(tdu_uom, 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- tdu_uom -&gt; SellableUOM</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(tdu_uom, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tdu_uom -&gt; SellableUOM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -11347,15 +11347,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="O13" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.is_nullable) || -- rsus_per_tdu -&gt; UnitsPerCase</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.fc_is_nullable) || -- rsus_per_tdu -&gt; UnitsPerCase</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -11382,15 +11382,15 @@
         <v>0</v>
       </c>
       <c r="M14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="O14" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.is_nullable) || -- rsus_per_tdu -&gt; BaseUnitsPerSellable</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.fc_is_nullable) || -- rsus_per_tdu -&gt; BaseUnitsPerSellable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11414,15 +11414,15 @@
         <v>108</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G15,IF(I15="Yes","_CONSTANT","")))), "::source_field::", A15), "::target_field::", C15), "::position::", D15), "::length::", E15), "::format::", H15), "::constant::", J15), "::is_nullable::", IF(F15="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L15), "none", LOWER(L15))))</f>
-        <v>pxi_common.char_format('0', 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '0' -&gt; Type</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('0', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '0' -&gt; Type</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -11449,15 +11449,15 @@
         <v>0</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="O16" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(tdu_net_weight, '9999999990.000', pxi_common.is_nullable) || -- tdu_net_weight -&gt; ShipperNetWeightKG</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(tdu_net_weight, '9999999990.000', pxi_common.fc_is_nullable) || -- tdu_net_weight -&gt; ShipperNetWeightKG</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -11484,15 +11484,15 @@
         <v>0</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O17" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(tdu_height, '9999999990', pxi_common.is_nullable) || -- tdu_height -&gt; CaseHeight</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(tdu_height, '9999999990', pxi_common.fc_is_nullable) || -- tdu_height -&gt; CaseHeight</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -11519,15 +11519,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O18" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G18,IF(I18="Yes","_CONSTANT","")))), "::source_field::", A18), "::target_field::", C18), "::position::", D18), "::length::", E18), "::format::", H18), "::constant::", J18), "::is_nullable::", IF(F18="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L18), "none", LOWER(L18))))</f>
-        <v>pxi_common.numb_format(tdu_width, '9999999990', pxi_common.is_nullable) || -- tdu_width -&gt; CaseWidth</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(tdu_width, '9999999990', pxi_common.fc_is_nullable) || -- tdu_width -&gt; CaseWidth</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -11554,15 +11554,15 @@
         <v>0</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(tdu_length, '9999999990', pxi_common.is_nullable) || -- tdu_length -&gt; CaseLength</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(tdu_length, '9999999990', pxi_common.fc_is_nullable) || -- tdu_length -&gt; CaseLength</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -11589,15 +11589,15 @@
         <v>0</v>
       </c>
       <c r="M20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O20" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(rsu_height, '9999999990', pxi_common.is_nullable) || -- rsu_height -&gt; UnitHeight</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rsu_height, '9999999990', pxi_common.fc_is_nullable) || -- rsu_height -&gt; UnitHeight</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -11628,11 +11628,11 @@
         <v>10</v>
       </c>
       <c r="O21" s="8" t="str">
-        <f t="shared" ref="O21:O22" ca="1" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G21,IF(I21="Yes","_CONSTANT","")))), "::source_field::", A21), "::target_field::", C21), "::position::", D21), "::length::", E21), "::format::", H21), "::constant::", J21), "::is_nullable::", IF(F21="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L21), "none", LOWER(L21))))</f>
-        <v>pxi_common.numb_format(rsu_width, '9999999990', pxi_common.is_nullable) || -- rsu_width -&gt; UnitWidth</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rsu_width, '9999999990', pxi_common.fc_is_nullable) || -- rsu_width -&gt; UnitWidth</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -11663,8 +11663,8 @@
         <v>10</v>
       </c>
       <c r="O22" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>pxi_common.numb_format(rsu_length, '9999999990', pxi_common.is_nullable) || -- rsu_length -&gt; UnitLength</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(rsu_length, '9999999990', pxi_common.fc_is_nullable) || -- rsu_length -&gt; UnitLength</v>
       </c>
     </row>
   </sheetData>
@@ -11674,20 +11674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -11708,7 +11708,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -11774,16 +11774,16 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f t="shared" ref="O2:O8" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('303002', 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '303002' -&gt; ICRecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('303002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '303002' -&gt; ICRecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D4" si="2">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -11806,16 +11806,16 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -11838,11 +11838,11 @@
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -11874,11 +11874,11 @@
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(node_code, 40, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- node_code -&gt; Attribute</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(node_code, 40, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- node_code -&gt; Attribute</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -11906,11 +11906,11 @@
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(node_name, 40, pxi_common.format_type_none, pxi_common.is_nullable) || -- node_name -&gt; NodeName</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(node_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- node_name -&gt; NodeName</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -11941,11 +11941,11 @@
         <v/>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(parent_node_code, 40, pxi_common.format_type_ltrim_zeros, pxi_common.is_nullable) || -- parent_node_code -&gt; ParrentAttribute</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(parent_node_code, 40, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- parent_node_code -&gt; ParrentAttribute</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -11976,55 +11976,55 @@
         <v/>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(material_code, 18, pxi_common.format_type_ltrim_zeros, pxi_common.is_nullable) || -- material_code -&gt; MaterialNumber</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(material_code, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- material_code -&gt; MaterialNumber</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="M9" s="7" t="str">
         <f>IF(ISBLANK(H9),"",CONCATENATE(IF(LEN(H9)&lt;&gt;E9,"#",""),LEN(H9)))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="J10" s="10"/>
       <c r="M10" s="7" t="str">
         <f t="shared" ref="M10:M13" si="4">IF(ISBLANK(H10),"",CONCATENATE(IF(LEN(H10)&lt;&gt;E10,"#",""),LEN(H10)))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="M11" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="M12" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="M13" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:15" ht="15">
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="10:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:15" ht="15">
       <c r="J23" s="10"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="10:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:15" ht="15">
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="10:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:15" ht="15">
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="10:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:15" ht="15">
       <c r="O26" s="9"/>
     </row>
   </sheetData>
@@ -12034,20 +12034,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12068,7 +12068,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -12134,11 +12134,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('300001', 6, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '300001' -&gt; RecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('300001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '300001' -&gt; RecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -12166,11 +12166,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O4" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O11" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -12199,10 +12199,10 @@
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -12233,11 +12233,11 @@
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ref="O5:O11" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G5,IF(I5="Yes","_CONSTANT","")))), "::source_field::", A5), "::target_field::", C5), "::position::", D5), "::length::", E5), "::format::", H5), "::constant::", J5), "::is_nullable::", IF(F5="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L5), "none", LOWER(L5))))</f>
-        <v>pxi_common.char_format(customer_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- customer_code -&gt; CustomerNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format(customer_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- customer_code -&gt; CustomerNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -12265,11 +12265,11 @@
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format(customer_name, 40, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- customer_name -&gt; Longname</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format(customer_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- customer_name -&gt; Longname</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -12297,11 +12297,11 @@
         <v/>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format('Y', 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT 'Y' -&gt; PACSCustomer</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format('Y', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT 'Y' -&gt; PACSCustomer</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -12332,11 +12332,11 @@
         <v/>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format(payer_customer_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_nullable) || -- payer_customer_code -&gt; PayerCode</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format(payer_customer_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- payer_customer_code -&gt; PayerCode</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -12364,11 +12364,11 @@
         <v/>
       </c>
       <c r="O9" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format(tax_exempt, 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- tax_exempt -&gt; TaxExempt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format(tax_exempt, 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tax_exempt -&gt; TaxExempt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -12396,11 +12396,11 @@
         <v/>
       </c>
       <c r="O10" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'NZD' -&gt; DefaultCurrenty</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; DefaultCurrenty</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
@@ -12428,11 +12428,11 @@
         <v/>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '149' -&gt; SalesOrg</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="3"/>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; SalesOrg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -12442,20 +12442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12476,7 +12476,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -12542,11 +12542,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('301001', 6, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '301001' -&gt; ICRecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('301001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '301001' -&gt; ICRecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -12574,11 +12574,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -12607,10 +12607,10 @@
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -12643,10 +12643,10 @@
       </c>
       <c r="O5" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(cust_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- cust_code -&gt; CustomerNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(cust_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- cust_code -&gt; CustomerNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -12675,10 +12675,10 @@
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(cust_name, 40, pxi_common.format_type_none, pxi_common.is_nullable) || -- cust_name -&gt; CustomerDescription</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(cust_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- cust_name -&gt; CustomerDescription</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>161</v>
       </c>
@@ -12707,10 +12707,10 @@
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(sales_org_code, 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- sales_org_code -&gt; CustomerSalesOrg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(sales_org_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- sales_org_code -&gt; CustomerSalesOrg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -12742,19 +12742,19 @@
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(parent_cust_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_nullable) || -- parent_cust_code -&gt; ParentCustomerNumber</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(parent_cust_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- parent_cust_code -&gt; ParentCustomerNumber</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -12764,20 +12764,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12798,7 +12798,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -12864,16 +12864,16 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f t="shared" ref="O2:O8" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('347001', 6, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '347001' -&gt; ICRecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('347001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '347001' -&gt; ICRecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3" si="2">D2+E2</f>
+        <f t="shared" ref="D3" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -12896,11 +12896,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -12928,11 +12928,11 @@
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G4,IF(I4="Yes","_CONSTANT","")))), "::source_field::", A4), "::target_field::", C4), "::position::", D4), "::length::", E4), "::format::", H4), "::constant::", J4), "::is_nullable::", IF(F4="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L4), "none", LOWER(L4))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -12963,11 +12963,11 @@
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(company_code, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- company_code -&gt; VendorNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(company_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- company_code -&gt; VendorNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -12995,11 +12995,11 @@
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(longname, 40, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- longname -&gt; Longname</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(longname, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- longname -&gt; Longname</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
@@ -13027,11 +13027,11 @@
         <v/>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format('Y', 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT 'Y' -&gt; PACSVendor</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('Y', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT 'Y' -&gt; PACSVendor</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
@@ -13059,14 +13059,14 @@
         <v/>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format('1', 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '1' -&gt; TaxExempt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('1', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; TaxExempt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -13076,20 +13076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13110,7 +13110,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -13176,11 +13176,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('330002', 6, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '330002' -&gt; RecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('330002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '330002' -&gt; RecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -13208,16 +13208,16 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D10" si="2">D3+E3</f>
+        <f t="shared" ref="D4:D10" si="3">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -13240,16 +13240,16 @@
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G4,IF(I4="Yes","_CONSTANT","")))), "::source_field::", A4), "::target_field::", C4), "::position::", D4), "::length::", E4), "::format::", H4), "::constant::", J4), "::is_nullable::", IF(F4="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L4), "none", LOWER(L4))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="C5" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13271,15 +13271,15 @@
         <v>64</v>
       </c>
       <c r="M5" s="7" t="str">
-        <f t="shared" ref="M5:M10" si="3">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
+        <f t="shared" ref="M5:M10" si="4">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ref="O5:O10" ca="1" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G5,IF(I5="Yes","_CONSTANT","")))), "::source_field::", A5), "::target_field::", C5), "::position::", D5), "::length::", E5), "::format::", H5), "::constant::", J5), "::is_nullable::", IF(F5="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L5), "none", LOWER(L5))))</f>
-        <v>pxi_common.char_format('DIV_1', 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- CONSTANT 'DIV_1' -&gt; CustomerCode</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('DIV_1', 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- CONSTANT 'DIV_1' -&gt; CustomerCode</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>116</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="E6" s="1">
@@ -13303,15 +13303,15 @@
         <v>64</v>
       </c>
       <c r="M6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format(prodcode, 18, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- prodcode -&gt; MaterialCode</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(prodcode, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- prodcode -&gt; MaterialCode</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -13336,15 +13336,15 @@
       </c>
       <c r="J7" s="10"/>
       <c r="M7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.date_format(startdate, 'yyyymmdd', pxi_common.is_not_nullable) || -- startdate -&gt; StartDate</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(startdate, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- startdate -&gt; StartDate</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="E8" s="1">
@@ -13368,15 +13368,15 @@
         <v>137</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.date_format(enddate, 'yyyymmdd', pxi_common.is_nullable) || -- enddate -&gt; EndDate</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(enddate, 'yyyymmdd', pxi_common.fc_is_nullable) || -- enddate -&gt; EndDate</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="E9" s="1">
@@ -13400,20 +13400,20 @@
         <v>122</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.numb_format(listprice, '999999990.00', pxi_common.is_nullable) || -- listprice -&gt; ListPrice</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(listprice, '999999990.00', pxi_common.fc_is_nullable) || -- listprice -&gt; ListPrice</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="E10" s="1">
@@ -13432,18 +13432,18 @@
         <v>51</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O10" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -13453,20 +13453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13487,7 +13487,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -13553,11 +13553,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f t="shared" ref="O2:O13" ca="1" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('306001', 6, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '306001' -&gt; ICRecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('306001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '306001' -&gt; ICRecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D13" si="2">D2+E2</f>
+        <f t="shared" ref="D3:D13" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -13588,11 +13588,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O13" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -13620,11 +13620,11 @@
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(hdr_division_code, 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- hdr_division_code -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(hdr_division_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- hdr_division_code -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13655,11 +13655,11 @@
         <v/>
       </c>
       <c r="O5" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(sold_to_cust_code, 20, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- sold_to_cust_code -&gt; CustomerNumber</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(sold_to_cust_code, 20, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- sold_to_cust_code -&gt; CustomerNumber</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E6" s="1">
@@ -13687,11 +13687,11 @@
         <v/>
       </c>
       <c r="O6" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(billing_doc_num, 10, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- billing_doc_num -&gt; InvoiceNumber</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(billing_doc_num, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- billing_doc_num -&gt; InvoiceNumber</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="E7" s="1">
@@ -13719,11 +13719,11 @@
         <v/>
       </c>
       <c r="O7" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(billing_doc_line_num, 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- billing_doc_line_num -&gt; InvoiceLineNumber</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(billing_doc_line_num, 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- billing_doc_line_num -&gt; InvoiceLineNumber</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="E8" s="1">
@@ -13754,11 +13754,11 @@
         <v/>
       </c>
       <c r="O8" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(matl_entd, 18, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- matl_entd -&gt; Material</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(matl_entd, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- matl_entd -&gt; Material</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E9" s="1">
@@ -13789,11 +13789,11 @@
         <v>8</v>
       </c>
       <c r="O9" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.date_format(order_eff_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- order_eff_date -&gt; OrderDate</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(order_eff_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- order_eff_date -&gt; OrderDate</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E10" s="1">
@@ -13824,11 +13824,11 @@
         <v>8</v>
       </c>
       <c r="O10" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.date_format(billing_eff_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- billing_eff_date -&gt; InvoiceDate</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.date_format(billing_eff_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- billing_eff_date -&gt; InvoiceDate</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E11" s="1">
@@ -13859,11 +13859,11 @@
         <v>17</v>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.numb_format(billed_qty_base_uom, 'S9999999999990.00', pxi_common.is_not_nullable) || -- billed_qty_base_uom -&gt; QuantityInvoiced</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(billed_qty_base_uom, 'S9999999999990.00', pxi_common.fc_is_not_nullable) || -- billed_qty_base_uom -&gt; QuantityInvoiced</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="E12" s="1">
@@ -13894,11 +13894,11 @@
         <v>13</v>
       </c>
       <c r="O12" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.numb_format(billed_gsv, 'S999999990.00', pxi_common.is_not_nullable) || -- billed_gsv -&gt; GrossAmount</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.numb_format(billed_gsv, 'S999999990.00', pxi_common.fc_is_not_nullable) || -- billed_gsv -&gt; GrossAmount</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="E13" s="1">
@@ -13926,23 +13926,23 @@
         <v/>
       </c>
       <c r="O13" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pxi_common.char_format(doc_currcy_code, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- doc_currcy_code -&gt; Currency</v>
-      </c>
-    </row>
-    <row r="22" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(doc_currcy_code, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- doc_currcy_code -&gt; Currency</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15" ht="15">
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="15:15" ht="15">
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="15:15" ht="15">
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="15:15" ht="15">
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="15:15" ht="15">
       <c r="O26" s="9"/>
     </row>
   </sheetData>
@@ -13952,20 +13952,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13986,7 +13986,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -14052,11 +14052,11 @@
         <v/>
       </c>
       <c r="O2" s="8" t="str">
-        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
-        <v>pxi_common.char_format('361001', 6, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '361001' -&gt; ICRecordType</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <f ca="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G2,IF(I2="Yes","_CONSTANT","")))), "::source_field::", A2), "::target_field::", C2), "::position::", D2), "::length::", E2), "::format::", H2), "::constant::", J2), "::is_nullable::", IF(F2="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L2), "none", LOWER(L2))))</f>
+        <v>pxi_common.char_format('361001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '361001' -&gt; ICRecordType</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -14084,11 +14084,11 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O18" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.is_not_nullable", "pxi_common.is_nullable")), "::format_type::", CONCATENATE("pxi_common.format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O3:O18" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14117,10 +14117,10 @@
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -14152,10 +14152,10 @@
       </c>
       <c r="O5" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(bus_partner_ref, 10, pxi_common.format_type_ltrim_zeros, pxi_common.is_not_nullable) || -- bus_partner_ref -&gt; AccountCode</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(bus_partner_ref, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- bus_partner_ref -&gt; AccountCode</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
@@ -14184,10 +14184,10 @@
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(tax_cust_ref, 20, pxi_common.format_type_none, pxi_common.is_nullable) || -- tax_cust_ref -&gt; Reference</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(tax_cust_ref, 20, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tax_cust_ref -&gt; Reference</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
@@ -14216,10 +14216,10 @@
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('A', 1, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'A' -&gt; ActionFlag</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('A', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'A' -&gt; ActionFlag</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -14248,10 +14248,10 @@
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('1', 1, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '1' -&gt; Type</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('1', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; Type</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
@@ -14283,10 +14283,10 @@
       </c>
       <c r="O9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.date_format(posting_date, 'yyyymmdd', pxi_common.is_not_nullable) || -- posting_date -&gt; Date</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.date_format(posting_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- posting_date -&gt; Date</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -14315,10 +14315,10 @@
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(claim_ref, 18, pxi_common.format_type_none, pxi_common.is_nullable) || -- claim_ref -&gt; Number</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(claim_ref, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- claim_ref -&gt; Number</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="C11" s="1" t="s">
         <v>144</v>
       </c>
@@ -14348,10 +14348,10 @@
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('0', 18, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT '0' -&gt; ParentNumber</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('0', 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '0' -&gt; ParentNumber</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -14381,10 +14381,10 @@
       </c>
       <c r="O12" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(assignment_no, 65, pxi_common.format_type_none, pxi_common.is_nullable) || -- assignment_no -&gt; ExtReference</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(assignment_no, 65, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- assignment_no -&gt; ExtReference</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="C13" s="1" t="s">
         <v>146</v>
       </c>
@@ -14413,10 +14413,10 @@
       </c>
       <c r="O13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('', 80, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '' -&gt; InvoiceLink</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('', 80, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '' -&gt; InvoiceLink</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>154</v>
       </c>
@@ -14445,10 +14445,10 @@
       </c>
       <c r="O14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format(reason_code, 5, pxi_common.format_type_none, pxi_common.is_nullable) || -- reason_code -&gt; ReasonCode</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format(reason_code, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- reason_code -&gt; ReasonCode</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -14480,10 +14480,10 @@
       </c>
       <c r="O15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(amount, '9999999990.00', pxi_common.is_not_nullable) || -- amount -&gt; Amount</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.numb_format(amount, '9999999990.00', pxi_common.fc_is_not_nullable) || -- amount -&gt; Amount</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>192</v>
       </c>
@@ -14515,10 +14515,10 @@
       </c>
       <c r="O16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.numb_format(tax_amount, '9999999990.00', pxi_common.is_not_nullable) || -- tax_amount -&gt; TaxAmount</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.numb_format(tax_amount, '9999999990.00', pxi_common.fc_is_not_nullable) || -- tax_amount -&gt; TaxAmount</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
@@ -14547,10 +14547,10 @@
       </c>
       <c r="O17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('', 256, pxi_common.format_type_none, pxi_common.is_nullable) || -- CONSTANT '' -&gt; Note</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>pxi_common.char_format('', 256, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '' -&gt; Note</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="O18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.format_type_none, pxi_common.is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
+        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
       </c>
     </row>
   </sheetData>

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="446">
   <si>
     <t>No</t>
   </si>
@@ -1380,6 +1380,9 @@
   </si>
   <si>
     <t>Order Type Code</t>
+  </si>
+  <si>
+    <t>product_status</t>
   </si>
 </sst>
 </file>
@@ -3022,7 +3025,7 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -10893,11 +10896,11 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11125,6 +11128,9 @@
       </c>
     </row>
     <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
       </c>
@@ -11142,18 +11148,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10"/>
       <c r="M7" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('1', 2, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; Status</v>
+        <v>pxi_common.char_format(product_status, 2, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- product_status -&gt; Status</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13208,7 +13212,7 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <f t="shared" ref="O3:O10" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'FFLU PMXPXI03 - 359PROM'!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'PXIATL02 - CISATL14'!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1388,8 +1388,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,6 +1565,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1599,6 +1600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1774,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1782,7 +1784,7 @@
       <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1800,7 +1802,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>194</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>site_app.pmxpxi03_loader</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>site_app.pmxpxi01_loader</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>site_app.pmxpxi02_loader</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2450,7 +2452,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>Promax NZ &gt; DFN : Demand : 337 : 337EST</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2582,17 +2584,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>237</v>
       </c>
@@ -2604,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2617,7 +2619,7 @@
       <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -2638,7 +2640,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>pxi_common.char_format('336002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '336002' -&gt; RecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>pxi_common.char_format(invoicenumber, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- invoicenumber -&gt; InvoiceNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>pxi_common.char_format(invoicelinenumber, 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- invoicelinenumber -&gt; InvoiceLineNumber</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v>pxi_common.char_format(customerhierarchy, 8, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- customerhierarchy -&gt; CustomerHierarchy</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>172</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>pxi_common.char_format(material, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- material -&gt; Material</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>173</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>pxi_common.date_format(invoicedate, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- invoicedate -&gt; InvoiceDate</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>pxi_common.numb_format(discountgiven, '9999990.00', pxi_common.fc_is_not_nullable) || -- discountgiven -&gt; DiscountGiven</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
@@ -3018,7 +3020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3029,7 +3031,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -3050,7 +3052,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>406</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>pxi_common.char_format('A', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'A' -&gt; UsageConditionCode</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>pxi_common.char_format(cndtn_table_ref, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cndtn_table_ref -&gt; CondTable</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>409</v>
       </c>
@@ -3185,7 +3187,7 @@
         <v>pxi_common.char_format('V', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'V' -&gt; Application</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>411</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>pxi_common.char_format(VAKEY, 50, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- VAKEY -&gt; VAKEY</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>412</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>pxi_common.char_format(px_company_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- px_company_code -&gt; CompanyCode</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>414</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>pxi_common.char_format(cust_div_code, 2, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cust_div_code -&gt; Division</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>416</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>pxi_common.char_format(cust_hier, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- cust_hier -&gt; Customer</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>pxi_common.char_format(material, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- material -&gt; Material</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>418</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>pxi_common.date_format(buy_start_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- buy_start_date -&gt; ValidFrom</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>420</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>pxi_common.date_format(buy_stop_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- buy_stop_date -&gt; ValidTo</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>422</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>pxi_common.char_format(pricing_cndtn_code, 4, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- pricing_cndtn_code -&gt; Condition</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>424</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>pxi_common.char_format(condition_type_code, 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- condition_type_code -&gt; ConditionType</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>425</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>pxi_common.numb_format(rate, 's9999990.00', pxi_common.fc_is_not_nullable) || -- rate -&gt; Rate</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>427</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>pxi_common.char_format(rate_unit, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rate_unit -&gt; RateUnit</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>pxi_common.char_format('EA', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'EA' -&gt; UOM</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>430</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>pxi_common.char_format(sales_deal, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- sales_deal -&gt; PromoNum</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>432</v>
       </c>
@@ -3654,7 +3656,7 @@
         <v>pxi_common.char_format(rate_multiplier, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rate_multiplier -&gt; PriceUnit</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>434</v>
       </c>
@@ -3693,7 +3695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3706,7 +3708,7 @@
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
@@ -3725,7 +3727,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25">
+    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>rec_type varchar2(3 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25">
+    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>idoc_type varchar2(30 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25">
+    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>idoc_no number(16,0),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25">
+    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>290</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>idoc_date date,</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25">
+    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4069,7 +4071,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="11.25">
+    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>283</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>rec_type varchar2(3 char),</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25">
+    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25">
+    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>293</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>div_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25">
+    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>cust_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25">
+    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>296</v>
       </c>
@@ -4337,7 +4339,7 @@
         <v>claim_amount number(15,4),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25">
+    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>299</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>claim_ref varchar2(12 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25">
+    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>301</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>assignment_no varchar2(18 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25">
+    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>303</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>tax_base number(15,4),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25">
+    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>304</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25">
+    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>305</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>fiscal_period number(2,0),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25">
+    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>308</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>reason_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25">
+    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>309</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>accounting_doc_no varchar2(10 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25">
+    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>310</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>fiscal_year number(4,0),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25">
+    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>313</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>line_item_no varchar2(3),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25">
+    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>315</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>bus_partner_ref varchar2(12 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25">
+    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -4890,43 +4892,43 @@
         <v>tax_code varchar2(2 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25">
+    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="11.25">
+    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="11.25">
+    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="11.25">
+    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="11.25">
+    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="11.25">
+    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="11.25">
+    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="11.25">
+    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="11.25">
+    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="11.25">
+    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="11:11" s="1" customFormat="1" ht="11.25">
+    <row r="33" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="11:11" s="1" customFormat="1" ht="11.25">
+    <row r="34" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="11:11" s="1" customFormat="1" ht="11.25">
+    <row r="35" spans="11:11" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K35" s="8"/>
     </row>
   </sheetData>
@@ -4935,7 +4937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4948,7 +4950,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" bestFit="1" customWidth="1"/>
@@ -4967,7 +4969,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25">
+    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25">
+    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25">
+    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25">
+    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>283</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>rec_type varchar2(1 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25">
+    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>323</v>
       </c>
@@ -5300,7 +5302,7 @@
         <v>document_date date,</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25">
+    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25">
+    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>document_type varchar2(2 char),</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25">
+    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25">
+    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>reference varchar2(16 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25">
+    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>326</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>document_header_text varchar2(25 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25">
+    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>328</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>posting_key varchar2(4 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25">
+    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>179</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>account varchar2(17 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25">
+    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>331</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>pa_assignment_flag varchar2(1 char),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25">
+    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>amount number(13,2),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25">
+    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>332</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>payment_method varchar2(1 char),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25">
+    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>allocation varchar2(18 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25">
+    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>text varchar2(30 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25">
+    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>333</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>profit_centre varchar2(10 char),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25">
+    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>334</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>cost_centre varchar2(10 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25">
+    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>335</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>sales_organisation varchar2(4 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25">
+    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>336</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>sales_office varchar2(5 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25">
+    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>338</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>product_number varchar2(18 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25">
+    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>339</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>pa_code varchar2(5 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25">
+    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>340</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>glt_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25">
+    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>341</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>user_1 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25">
+    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>342</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>user_2 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25">
+    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>343</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25">
+    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>344</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25">
+    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>345</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>start_date date,</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25">
+    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>346</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>stop_date date,</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25">
+    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>quantity varchar2(15 char),</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="11.25">
+    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>348</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>additional_info varchar2(10 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25">
+    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>349</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>promotion_is_closed varchar2(1 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25">
+    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="K35" s="8"/>
     </row>
   </sheetData>
@@ -6699,7 +6701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6712,7 +6714,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="16" bestFit="1" customWidth="1"/>
@@ -6731,7 +6733,7 @@
     <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>275</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25">
+    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>318</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25">
+    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>320</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25">
+    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>321</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25">
+    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>type varchar2(1 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25">
+    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>323</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>document_date date,</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25">
+    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>304</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>posting_date date,</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25">
+    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>350</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>claim_date date,</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25">
+    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>141</v>
       </c>
@@ -7210,7 +7212,7 @@
         <v>reference varchar2(10 char),</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25">
+    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>326</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>document_header_text varchar2(25 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25">
+    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>351</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>expenditure_type varchar2(5 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25">
+    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>328</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>posting_key varchar2(7 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25">
+    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>353</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>account_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25">
+    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>148</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>amount number(14,2),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25">
+    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>354</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>spend_amount number(14,2),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25">
+    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>355</v>
       </c>
@@ -7562,7 +7564,7 @@
         <v>tax_amount number(14,2),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25">
+    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>332</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>payment_method varchar2(1 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25">
+    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>181</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>allocation varchar2(12 char),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25">
+    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>356</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v>pc_reference varchar2(18 char),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25">
+    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>357</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>px_reference varchar2(60 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25">
+    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>359</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>ext_reference varchar2(65 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25">
+    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>338</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>product_number varchar2(18 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25">
+    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>361</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>transaction_code varchar2(40 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25">
+    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>363</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>deduction_ac_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25">
+    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>365</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>payee_code varchar2(10 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25">
+    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>366</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>debit_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25">
+    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>367</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>credit_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25">
+    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>368</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>customer_is_a_vendor varchar2(1 char),</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25">
+    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>39</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25">
+    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>369</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>promo_claim_detail_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25">
+    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>370</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>promo_claim_group_row_id varchar2(10 char),</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25">
+    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>371</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>promo_claim_group_pub_id varchar2(30 char),</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="11.25">
+    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>308</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>reason_code varchar2(5 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25">
+    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>372</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>pc_message varchar2(65 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25">
+    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>373</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>pc_comment varchar2(200 char),</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="11.25">
+    <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>375</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>text_1 varchar2(40 char),</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="11.25">
+    <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>376</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>text_2 varchar2(40 char),</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="11.25">
+    <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>343</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="11.25">
+    <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>344</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="11.25">
+    <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>377</v>
       </c>
@@ -8750,7 +8752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8764,7 +8766,7 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="8" bestFit="1" customWidth="1"/>
@@ -8783,7 +8785,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>275</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.25">
+    <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
@@ -8896,7 +8898,7 @@
         <v>ic_record_type varchar2(6 char),</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.25">
+    <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>px_company_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="11.25">
+    <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>321</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>px_division_code varchar2(3 char),</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.25">
+    <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>210</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>customer_hierarchy varchar2(10 char),</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25">
+    <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>378</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>sales_deal varchar2(10 char),</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25">
+    <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>material varchar2(18 char),</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="11.25">
+    <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>343</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>buy_start_date date,</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25">
+    <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>344</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>buy_stop_date date,</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="11.25">
+    <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -9308,7 +9310,7 @@
         <v>transaction_code varchar2(4 char),</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.25">
+    <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>description varchar2(40 char),</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.25">
+    <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>379</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>sales_org varchar2(4 char),</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="11.25">
+    <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -9458,7 +9460,7 @@
         <v>rate number(12,2),</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25">
+    <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>341</v>
       </c>
@@ -9507,7 +9509,7 @@
         <v>user_1 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="11.25">
+    <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>342</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>user_2 varchar2(10 char),</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="11.25">
+    <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>380</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>action_code varchar2(1 char),</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25">
+    <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>381</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>bonus_stock_description varchar2(100 char),</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="11.25">
+    <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>383</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>bonus_stock_hurdle number(9,2),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="11.25">
+    <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -9758,7 +9760,7 @@
         <v>bonus_stock_receive number(9,2),</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="11.25">
+    <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>385</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>bonus_stock_sku_code varchar2(18 char),</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="11.25">
+    <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>386</v>
       </c>
@@ -9856,7 +9858,7 @@
         <v>rate_unit varchar2(5 char),</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="11.25">
+    <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>387</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>condition_pricing_unit varchar2(5 char),</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="11.25">
+    <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>condition_uom varchar2(3 char),</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25">
+    <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>389</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>sap_promo_number varchar2(10 char),</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="11.25">
+    <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -10052,7 +10054,7 @@
         <v>currency varchar2(3 char),</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="11.25">
+    <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>390</v>
       </c>
@@ -10101,7 +10103,7 @@
         <v>uom_str_unit varchar2(3 char),</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="11.25">
+    <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>391</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>uom_str_saleable varchar2(3 char),</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="11.25">
+    <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>392</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>promo_price_saleable varchar2(10 char),</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="11.25">
+    <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>393</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>promo_price_unit varchar2(10 char),</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="11.25">
+    <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>394</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>transaction_amount varchar2(10 char),</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="11.25">
+    <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>395</v>
       </c>
@@ -10346,14 +10348,14 @@
         <v>payer_code varchar2(20 char),</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="11.25">
+    <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="I32" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="11.25">
+    <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>436</v>
       </c>
@@ -10399,7 +10401,7 @@
         <v>condition_flag varchar2(1 char),</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="11.25">
+    <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>437</v>
       </c>
@@ -10445,7 +10447,7 @@
         <v>business_segment varchar2(2 char),</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="11.25">
+    <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>438</v>
       </c>
@@ -10491,7 +10493,7 @@
         <v>rate_multiplier number(4),</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="11.25">
+    <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>440</v>
       </c>
@@ -10537,7 +10539,7 @@
         <v>condition_type_code varchar2(1 char),</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="11.25">
+    <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>441</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>pricing_condition_code varchar2(4 char),</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="11.25">
+    <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>442</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>condition_table_ref varchar2(5 char),</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="11.25">
+    <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>443</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>cust_div_code varchar2(2 char),</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="11.25">
+    <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>444</v>
       </c>
@@ -10728,7 +10730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10739,14 +10741,14 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -10754,15 +10756,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="13" customFormat="1">
+    <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -10770,7 +10772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -10786,7 +10788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -10802,32 +10804,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>259</v>
       </c>
@@ -10835,7 +10837,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>261</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>263</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>265</v>
       </c>
@@ -10859,7 +10861,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>267</v>
       </c>
@@ -10867,7 +10869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>269</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>271</v>
       </c>
@@ -10890,20 +10892,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -10924,7 +10926,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -10963,7 +10965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -10994,7 +10996,7 @@
         <v>pxi_common.char_format('302001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '302001' -&gt; RecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11060,7 +11062,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -11095,7 +11097,7 @@
         <v>pxi_common.char_format(zrep_matl_code, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- zrep_matl_code -&gt; ProductItemNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>pxi_common.char_format(zrep_matl_desc, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- zrep_matl_desc -&gt; Description</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>445</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>pxi_common.char_format(product_status, 2, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- product_status -&gt; Status</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -11195,7 +11197,7 @@
         <v>pxi_common.char_format(zrep_matl_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- zrep_matl_code -&gt; ShortName</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -11227,7 +11229,7 @@
         <v>pxi_common.char_format(rsu_ean, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- rsu_ean -&gt; APN</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -11259,7 +11261,7 @@
         <v>pxi_common.char_format(tdu_ean, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tdu_ean -&gt; TUN</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>110</v>
       </c>
@@ -11291,7 +11293,7 @@
         <v>pxi_common.char_format(rsu_uom, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- rsu_uom -&gt; UOM</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>pxi_common.char_format(tdu_uom, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tdu_uom -&gt; SellableUOM</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.fc_is_nullable) || -- rsus_per_tdu -&gt; UnitsPerCase</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>pxi_common.numb_format(rsus_per_tdu, '99999999999990', pxi_common.fc_is_nullable) || -- rsus_per_tdu -&gt; BaseUnitsPerSellable</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>pxi_common.char_format('0', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '0' -&gt; Type</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>pxi_common.numb_format(tdu_net_weight, '9999999990.000', pxi_common.fc_is_nullable) || -- tdu_net_weight -&gt; ShipperNetWeightKG</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -11496,7 +11498,7 @@
         <v>pxi_common.numb_format(tdu_height, '9999999990', pxi_common.fc_is_nullable) || -- tdu_height -&gt; CaseHeight</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -11531,7 +11533,7 @@
         <v>pxi_common.numb_format(tdu_width, '9999999990', pxi_common.fc_is_nullable) || -- tdu_width -&gt; CaseWidth</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -11566,7 +11568,7 @@
         <v>pxi_common.numb_format(tdu_length, '9999999990', pxi_common.fc_is_nullable) || -- tdu_length -&gt; CaseLength</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>pxi_common.numb_format(rsu_height, '9999999990', pxi_common.fc_is_nullable) || -- rsu_height -&gt; UnitHeight</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>pxi_common.numb_format(rsu_width, '9999999990', pxi_common.fc_is_nullable) || -- rsu_width -&gt; UnitWidth</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -11678,7 +11680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11691,7 +11693,7 @@
       <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -11712,7 +11714,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -11782,7 +11784,7 @@
         <v>pxi_common.char_format('303002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '303002' -&gt; ICRecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -11814,7 +11816,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -11882,7 +11884,7 @@
         <v>pxi_common.char_format(node_code, 40, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- node_code -&gt; Attribute</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -11914,7 +11916,7 @@
         <v>pxi_common.char_format(node_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- node_name -&gt; NodeName</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>pxi_common.char_format(parent_node_code, 40, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- parent_node_code -&gt; ParrentAttribute</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -11984,51 +11986,51 @@
         <v>pxi_common.char_format(material_code, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- material_code -&gt; MaterialNumber</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M9" s="7" t="str">
         <f>IF(ISBLANK(H9),"",CONCATENATE(IF(LEN(H9)&lt;&gt;E9,"#",""),LEN(H9)))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J10" s="10"/>
       <c r="M10" s="7" t="str">
         <f t="shared" ref="M10:M13" si="4">IF(ISBLANK(H10),"",CONCATENATE(IF(LEN(H10)&lt;&gt;E10,"#",""),LEN(H10)))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M11" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M12" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M13" s="7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:15" ht="15">
+    <row r="22" spans="10:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="10:15" ht="15">
+    <row r="23" spans="10:15" ht="15" x14ac:dyDescent="0.25">
       <c r="J23" s="10"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="10:15" ht="15">
+    <row r="24" spans="10:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="10:15" ht="15">
+    <row r="25" spans="10:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="10:15" ht="15">
+    <row r="26" spans="10:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O26" s="9"/>
     </row>
   </sheetData>
@@ -12038,7 +12040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12051,7 +12053,7 @@
       <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12072,7 +12074,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -12142,7 +12144,7 @@
         <v>pxi_common.char_format('300001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '300001' -&gt; RecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -12174,7 +12176,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -12241,7 +12243,7 @@
         <v>pxi_common.char_format(customer_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- customer_code -&gt; CustomerNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>pxi_common.char_format(customer_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- customer_name -&gt; Longname</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -12305,7 +12307,7 @@
         <v>pxi_common.char_format('Y', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT 'Y' -&gt; PACSCustomer</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -12340,7 +12342,7 @@
         <v>pxi_common.char_format(payer_customer_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- payer_customer_code -&gt; PayerCode</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -12372,7 +12374,7 @@
         <v>pxi_common.char_format(tax_exempt, 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tax_exempt -&gt; TaxExempt</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -12404,7 +12406,7 @@
         <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; DefaultCurrenty</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
@@ -12436,7 +12438,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; SalesOrg</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -12446,7 +12448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12459,7 +12461,7 @@
       <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12480,7 +12482,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>pxi_common.char_format('301001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '301001' -&gt; ICRecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -12614,7 +12616,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -12650,7 +12652,7 @@
         <v>pxi_common.char_format(cust_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- cust_code -&gt; CustomerNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>pxi_common.char_format(cust_name, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- cust_name -&gt; CustomerDescription</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>161</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>pxi_common.char_format(sales_org_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- sales_org_code -&gt; CustomerSalesOrg</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -12749,16 +12751,16 @@
         <v>pxi_common.char_format(parent_cust_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_nullable) || -- parent_cust_code -&gt; ParentCustomerNumber</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -12768,7 +12770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12781,7 +12783,7 @@
       <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -12802,7 +12804,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -12872,7 +12874,7 @@
         <v>pxi_common.char_format('347001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '347001' -&gt; ICRecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -12904,7 +12906,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -12971,7 +12973,7 @@
         <v>pxi_common.char_format(company_code, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- company_code -&gt; VendorNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -13003,7 +13005,7 @@
         <v>pxi_common.char_format(longname, 40, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- longname -&gt; Longname</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>pxi_common.char_format('Y', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT 'Y' -&gt; PACSVendor</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
@@ -13067,10 +13069,10 @@
         <v>pxi_common.char_format('1', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; TaxExempt</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -13080,7 +13082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13093,7 +13095,7 @@
       <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13114,7 +13116,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -13153,7 +13155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
@@ -13184,7 +13186,7 @@
         <v>pxi_common.char_format('330002', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '330002' -&gt; RecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -13216,7 +13218,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>115</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>pxi_common.char_format('DIV_1', 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- CONSTANT 'DIV_1' -&gt; CustomerCode</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -13315,7 +13317,7 @@
         <v>pxi_common.char_format(prodcode, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- prodcode -&gt; MaterialCode</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
@@ -13348,7 +13350,7 @@
         <v>pxi_common.date_format(startdate, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- startdate -&gt; StartDate</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
@@ -13380,7 +13382,7 @@
         <v>pxi_common.date_format(enddate, 'yyyymmdd', pxi_common.fc_is_nullable) || -- enddate -&gt; EndDate</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
@@ -13412,7 +13414,7 @@
         <v>pxi_common.numb_format(listprice, '999999990.00', pxi_common.fc_is_nullable) || -- listprice -&gt; ListPrice</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
@@ -13444,10 +13446,10 @@
         <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H12" s="3"/>
     </row>
   </sheetData>
@@ -13457,20 +13459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13491,7 +13493,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -13530,7 +13532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -13561,7 +13563,7 @@
         <v>pxi_common.char_format('306001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '306001' -&gt; ICRecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -13596,7 +13598,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -13628,7 +13630,7 @@
         <v>pxi_common.char_format(hdr_division_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- hdr_division_code -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -13663,7 +13665,7 @@
         <v>pxi_common.char_format(sold_to_cust_code, 20, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- sold_to_cust_code -&gt; CustomerNumber</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -13695,7 +13697,7 @@
         <v>pxi_common.char_format(billing_doc_num, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- billing_doc_num -&gt; InvoiceNumber</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -13707,7 +13709,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -13724,10 +13726,10 @@
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format(billing_doc_line_num, 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- billing_doc_line_num -&gt; InvoiceLineNumber</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>pxi_common.char_format(billing_doc_line_num, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- billing_doc_line_num -&gt; InvoiceLineNumber</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -13736,7 +13738,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>18</v>
@@ -13762,7 +13764,7 @@
         <v>pxi_common.char_format(matl_entd, 18, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- matl_entd -&gt; Material</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -13771,7 +13773,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -13797,7 +13799,7 @@
         <v>pxi_common.date_format(order_eff_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- order_eff_date -&gt; OrderDate</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -13806,7 +13808,7 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -13832,7 +13834,7 @@
         <v>pxi_common.date_format(billing_eff_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- billing_eff_date -&gt; InvoiceDate</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -13841,7 +13843,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1">
         <v>17</v>
@@ -13867,7 +13869,7 @@
         <v>pxi_common.numb_format(billed_qty_base_uom, 'S9999999999990.00', pxi_common.fc_is_not_nullable) || -- billed_qty_base_uom -&gt; QuantityInvoiced</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -13876,7 +13878,7 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1">
         <v>13</v>
@@ -13902,7 +13904,7 @@
         <v>pxi_common.numb_format(billed_gsv, 'S999999990.00', pxi_common.fc_is_not_nullable) || -- billed_gsv -&gt; GrossAmount</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -13911,7 +13913,7 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -13934,19 +13936,19 @@
         <v>pxi_common.char_format(doc_currcy_code, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- doc_currcy_code -&gt; Currency</v>
       </c>
     </row>
-    <row r="22" spans="15:15" ht="15">
+    <row r="22" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="15:15" ht="15">
+    <row r="23" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="15:15" ht="15">
+    <row r="24" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="15:15" ht="15">
+    <row r="25" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="15:15" ht="15">
+    <row r="26" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O26" s="9"/>
     </row>
   </sheetData>
@@ -13956,7 +13958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13969,7 +13971,7 @@
       <selection pane="bottomRight" activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
@@ -13990,7 +13992,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>69</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -14060,7 +14062,7 @@
         <v>pxi_common.char_format('361001', 6, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '361001' -&gt; ICRecordType</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -14092,7 +14094,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14124,7 +14126,7 @@
         <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>pxi_common.char_format(bus_partner_ref, 10, pxi_common.fc_format_type_ltrim_zeros, pxi_common.fc_is_not_nullable) || -- bus_partner_ref -&gt; AccountCode</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
@@ -14191,7 +14193,7 @@
         <v>pxi_common.char_format(tax_cust_ref, 20, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- tax_cust_ref -&gt; Reference</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
@@ -14223,7 +14225,7 @@
         <v>pxi_common.char_format('A', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'A' -&gt; ActionFlag</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -14255,7 +14257,7 @@
         <v>pxi_common.char_format('1', 1, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '1' -&gt; Type</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
@@ -14290,7 +14292,7 @@
         <v>pxi_common.date_format(posting_date, 'yyyymmdd', pxi_common.fc_is_not_nullable) || -- posting_date -&gt; Date</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -14322,7 +14324,7 @@
         <v>pxi_common.char_format(claim_ref, 18, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- claim_ref -&gt; Number</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>144</v>
       </c>
@@ -14355,7 +14357,7 @@
         <v>pxi_common.char_format('0', 18, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '0' -&gt; ParentNumber</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -14388,7 +14390,7 @@
         <v>pxi_common.char_format(assignment_no, 65, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- assignment_no -&gt; ExtReference</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>146</v>
       </c>
@@ -14420,7 +14422,7 @@
         <v>pxi_common.char_format('', 80, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '' -&gt; InvoiceLink</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>154</v>
       </c>
@@ -14452,7 +14454,7 @@
         <v>pxi_common.char_format(reason_code, 5, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- reason_code -&gt; ReasonCode</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -14487,7 +14489,7 @@
         <v>pxi_common.numb_format(amount, '9999999990.00', pxi_common.fc_is_not_nullable) || -- amount -&gt; Amount</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>192</v>
       </c>
@@ -14522,7 +14524,7 @@
         <v>pxi_common.numb_format(tax_amount, '9999999990.00', pxi_common.fc_is_not_nullable) || -- tax_amount -&gt; TaxAmount</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
@@ -14554,7 +14556,7 @@
         <v>pxi_common.char_format('', 256, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '' -&gt; Note</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -1777,6 +1777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2607,7 +2608,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O11"/>
@@ -3021,7 +3022,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3696,7 +3697,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
@@ -4938,7 +4939,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet13">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
@@ -6702,7 +6703,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N40"/>
@@ -8753,17 +8754,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet15">
     <tabColor theme="8" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9229,7 +9230,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>3</v>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="L9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fflu_data.add_date_field_txt(pc_buy_stop_date,59,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_allow_null,fflu_data.gc_null_nls_options);</v>
+        <v>fflu_data.add_date_field_txt(pc_buy_stop_date,59,8,'yyyymmdd',fflu_data.gc_null_min_date,fflu_data.gc_null_max_date,fflu_data.gc_not_allow_null,fflu_data.gc_null_nls_options);</v>
       </c>
       <c r="M9" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -10731,7 +10732,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet16">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B24"/>
@@ -10893,7 +10894,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
@@ -11681,7 +11682,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
@@ -12041,7 +12042,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
@@ -12449,7 +12450,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
@@ -12771,7 +12772,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
@@ -13083,7 +13084,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O12"/>
@@ -13460,12 +13461,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13959,7 +13960,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="20730" windowHeight="4245" tabRatio="635" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6480" tabRatio="635" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="448">
   <si>
     <t>No</t>
   </si>
@@ -1383,6 +1383,12 @@
   </si>
   <si>
     <t>product_status</t>
+  </si>
+  <si>
+    <t>promax_company</t>
+  </si>
+  <si>
+    <t>promax_division</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2623,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2712,6 +2718,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2729,26 +2738,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M11" si="1">IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D10" si="3">D3+E3</f>
+        <f t="shared" ref="D4" si="3">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -2761,18 +2771,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2783,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D4:D10" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -2815,7 +2823,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E6" s="1">
@@ -2847,7 +2855,7 @@
         <v>166</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E7" s="1">
@@ -2883,7 +2891,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="E8" s="1">
@@ -2919,7 +2927,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="E9" s="1">
@@ -2954,7 +2962,7 @@
         <v>167</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E10" s="1">
@@ -3028,8 +3036,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6712,7 +6720,7 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8760,11 +8768,11 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10903,7 +10911,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10998,11 +11006,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D22" si="1">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -11014,23 +11025,23 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O22" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11047,20 +11058,17 @@
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f>IF(ISBLANK(H4),"",CONCATENATE(IF(LEN(H4)&lt;&gt;E4,"#",""),LEN(H4)))</f>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -11071,7 +11079,7 @@
         <v>74</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D22" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -11090,7 +11098,7 @@
         <v>64</v>
       </c>
       <c r="M5" s="7" t="str">
-        <f t="shared" ref="M5:M20" si="3">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
+        <f t="shared" ref="M5:M20" si="4">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
         <v/>
       </c>
       <c r="O5" s="8" t="str">
@@ -11106,7 +11114,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E6" s="1">
@@ -11122,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O6" s="8" t="str">
@@ -11138,7 +11146,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E7" s="1">
@@ -11155,7 +11163,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="M7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O7" s="8" t="str">
@@ -11171,7 +11179,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="E8" s="1">
@@ -11190,7 +11198,7 @@
         <v>64</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O8" s="8" t="str">
@@ -11206,7 +11214,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="E9" s="1">
@@ -11222,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O9" s="8" t="str">
@@ -11238,7 +11246,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E10" s="1">
@@ -11254,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O10" s="8" t="str">
@@ -11270,7 +11278,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="E11" s="1">
@@ -11286,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O11" s="8" t="str">
@@ -11302,7 +11310,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="E12" s="1">
@@ -11319,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O12" s="8" t="str">
@@ -11335,7 +11343,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="E13" s="1">
@@ -11354,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O13" s="8" t="str">
@@ -11370,7 +11378,7 @@
         <v>82</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="E14" s="1">
@@ -11389,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O14" s="8" t="str">
@@ -11402,7 +11410,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="E15" s="1">
@@ -11421,7 +11429,7 @@
         <v>108</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O15" s="8" t="str">
@@ -11437,7 +11445,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="E16" s="1">
@@ -11456,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O16" s="8" t="str">
@@ -11472,7 +11480,7 @@
         <v>85</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="E17" s="1">
@@ -11491,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O17" s="8" t="str">
@@ -11507,7 +11515,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="E18" s="1">
@@ -11526,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O18" s="8" t="str">
@@ -11542,7 +11550,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="E19" s="1">
@@ -11561,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O19" s="8" t="str">
@@ -11577,7 +11585,7 @@
         <v>88</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="E20" s="1">
@@ -11596,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O20" s="8" t="str">
@@ -11612,7 +11620,7 @@
         <v>89</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="E21" s="1">
@@ -11631,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="7" t="str">
-        <f t="shared" ref="M21:M22" si="4">IF(ISBLANK(H21),"",CONCATENATE(IF(LEN(H21)&lt;&gt;E21,"#",""),LEN(H21)))</f>
+        <f t="shared" ref="M21:M22" si="5">IF(ISBLANK(H21),"",CONCATENATE(IF(LEN(H21)&lt;&gt;E21,"#",""),LEN(H21)))</f>
         <v>10</v>
       </c>
       <c r="O21" s="8" t="str">
@@ -11647,7 +11655,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="E22" s="1">
@@ -11666,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O22" s="8" t="str">
@@ -11691,7 +11699,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12051,7 +12059,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12146,11 +12154,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D11" si="1">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -12163,23 +12174,24 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M4" si="2">IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O11" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
@@ -12195,18 +12207,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -12217,7 +12227,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D11" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -12252,7 +12262,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E6" s="1">
@@ -12281,7 +12291,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E7" s="1">
@@ -12316,7 +12326,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="E8" s="1">
@@ -12351,7 +12361,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="E9" s="1">
@@ -12380,7 +12390,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E10" s="1">
@@ -12412,7 +12422,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="E11" s="1">
@@ -12459,7 +12469,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12554,6 +12564,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -12571,26 +12584,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M8" si="1">IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D8" si="3">D3+E3</f>
+        <f t="shared" ref="D4" si="3">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -12603,18 +12617,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -12625,7 +12637,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D4:D8" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -12661,7 +12673,7 @@
         <v>156</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E6" s="1">
@@ -12693,7 +12705,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="E7" s="1">
@@ -12725,7 +12737,7 @@
         <v>158</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="E8" s="1">
@@ -12781,7 +12793,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:O8"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12876,11 +12888,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3" si="1">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -12893,26 +12908,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D8" si="3">D3+E3</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -12925,18 +12941,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f>IF(ISBLANK(H4),"",CONCATENATE(IF(LEN(H4)&lt;&gt;E4,"#",""),LEN(H4)))</f>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -12947,7 +12961,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D4:D8" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13093,7 +13107,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13188,11 +13202,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3" si="1">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -13205,26 +13222,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f>IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O10" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D10" si="3">D3+E3</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -13237,18 +13255,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f>IF(ISBLANK(H4),"",CONCATENATE(IF(LEN(H4)&lt;&gt;E4,"#",""),LEN(H4)))</f>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -13256,7 +13272,7 @@
         <v>115</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D4:D10" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13470,7 +13486,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13572,7 +13588,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D13" si="1">D2+E2</f>
+        <f t="shared" ref="D3" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -13585,18 +13601,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O13" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(company_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- company_code -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -13607,7 +13621,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D13" si="3">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -13639,7 +13653,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13674,7 +13688,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E6" s="1">
@@ -13706,7 +13720,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="E7" s="1">
@@ -13738,7 +13752,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="E8" s="1">
@@ -13773,7 +13787,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E9" s="1">
@@ -13808,7 +13822,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="E10" s="1">
@@ -13827,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f t="shared" ref="M10:M13" si="3">IF(ISBLANK(H10),"",CONCATENATE(IF(LEN(H10)&lt;&gt;E10,"#",""),LEN(H10)))</f>
+        <f t="shared" ref="M10:M13" si="4">IF(ISBLANK(H10),"",CONCATENATE(IF(LEN(H10)&lt;&gt;E10,"#",""),LEN(H10)))</f>
         <v>8</v>
       </c>
       <c r="O10" s="8" t="str">
@@ -13843,7 +13857,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="E11" s="1">
@@ -13862,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="O11" s="8" t="str">
@@ -13878,7 +13892,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="E12" s="1">
@@ -13897,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="O12" s="8" t="str">
@@ -13913,7 +13927,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="E13" s="1">
@@ -13929,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O13" s="8" t="str">
@@ -13969,7 +13983,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:O18"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -14064,11 +14078,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D18" si="1">D2+E2</f>
+        <f t="shared" ref="D3:D4" si="1">D2+E2</f>
         <v>6</v>
       </c>
       <c r="E3" s="1">
@@ -14081,21 +14098,22 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" ref="M3:M18" si="2">IF(ISBLANK(H3),"",CONCATENATE(IF(LEN(H3)&lt;&gt;E3,"#",""),LEN(H3)))</f>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O18" ca="1" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -14113,18 +14131,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -14135,7 +14151,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D18" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -14170,7 +14186,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E6" s="1">
@@ -14199,7 +14215,7 @@
         <v>142</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E7" s="1">
@@ -14231,7 +14247,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="E8" s="1">
@@ -14266,7 +14282,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="E9" s="1">
@@ -14301,7 +14317,7 @@
         <v>143</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E10" s="1">
@@ -14330,7 +14346,7 @@
         <v>144</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="E11" s="1">
@@ -14366,7 +14382,7 @@
         <v>145</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="E12" s="1">
@@ -14396,7 +14412,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="E13" s="1">
@@ -14431,7 +14447,7 @@
         <v>147</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="E14" s="1">
@@ -14463,7 +14479,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="E15" s="1">
@@ -14498,7 +14514,7 @@
         <v>136</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="E16" s="1">
@@ -14530,7 +14546,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="E17" s="1">
@@ -14562,7 +14578,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>520</v>
       </c>
       <c r="E18" s="1">

--- a/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
+++ b/SOURCE/PXI/DOC/Promax Interface Format 20130802_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6480" tabRatio="635" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6480" tabRatio="635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Master" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="449">
   <si>
     <t>No</t>
   </si>
@@ -200,9 +200,6 @@
     <t>DefaultCurrenty</t>
   </si>
   <si>
-    <t>NZD</t>
-  </si>
-  <si>
     <t>SalesOrg</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1389,6 +1383,15 @@
   </si>
   <si>
     <t>promax_division</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>promotion_number</t>
+  </si>
+  <si>
+    <t>PromotionNumber</t>
   </si>
 </sst>
 </file>
@@ -1811,31 +1814,31 @@
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1843,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="G2" s="1">
         <v>302</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1872,28 +1875,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G3" s="1">
         <v>303</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1901,28 +1904,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1">
         <v>300</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1930,28 +1933,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G5" s="1">
         <v>301</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1959,28 +1962,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G6" s="1">
         <v>347</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1988,28 +1991,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1">
         <v>330</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2017,22 +2020,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2040,28 +2043,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G9" s="1">
         <v>361</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2069,25 +2072,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2095,22 +2098,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="1">
         <v>306</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2118,25 +2121,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G12" s="1">
         <v>322</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2144,28 +2147,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G13" s="1">
         <v>336</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2173,25 +2176,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G14" s="1">
         <v>502</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2199,25 +2202,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G15" s="1">
         <v>363</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2225,28 +2228,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G16" s="1">
         <v>359</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>F16</f>
@@ -2266,28 +2269,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G17" s="1">
         <v>359</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2295,28 +2298,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G18" s="1">
         <v>325</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>F18</f>
@@ -2336,28 +2339,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G19" s="1">
         <v>325</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2365,28 +2368,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G20" s="1">
         <v>331</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K20" s="1" t="str">
         <f>F20</f>
@@ -2406,28 +2409,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G21" s="1">
         <v>331</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2435,28 +2438,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="1">
         <v>331</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2464,28 +2467,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G23" s="1">
         <v>331</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2493,28 +2496,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G24" s="1">
         <v>337</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K24" s="1" t="str">
         <f>F24</f>
@@ -2530,25 +2533,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G25" s="1">
         <v>337</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2556,19 +2559,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2576,34 +2579,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2617,13 +2620,13 @@
   <sheetPr codeName="Sheet10">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2649,10 +2652,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -2676,10 +2679,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -2688,7 +2691,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -2706,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -2746,13 +2749,13 @@
         <v/>
       </c>
       <c r="O3" s="8" t="str">
-        <f t="shared" ref="O3:O11" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
+        <f t="shared" ref="O3:O13" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
         <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -2785,13 +2788,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D4:D10" si="4">D4+E4</f>
+        <f t="shared" ref="D5:D10" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -2817,7 +2820,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="4"/>
@@ -2872,7 +2875,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -2940,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -2956,10 +2959,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="4"/>
@@ -2975,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -2991,10 +2994,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="8">
         <f>D10+E10</f>
@@ -3020,6 +3023,62 @@
       <c r="O11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>pxi_common.char_format(conditiontype, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- conditiontype -&gt; ConditionType</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D13" si="5">D11+E11</f>
+        <v>82</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(currency, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- currency -&gt; Currency</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>pxi_common.char_format(promotion_number, 10, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promotion_number -&gt; PromotionNumber</v>
       </c>
     </row>
   </sheetData>
@@ -3036,8 +3095,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3063,10 +3122,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -3090,10 +3149,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -3102,7 +3161,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -3120,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2:M19" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -3133,10 +3192,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D19" si="1">D2+E2</f>
@@ -3166,7 +3225,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
@@ -3185,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3198,10 +3257,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
@@ -3230,10 +3289,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -3262,10 +3321,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
@@ -3295,10 +3354,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
@@ -3328,7 +3387,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -3361,10 +3420,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
@@ -3380,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -3396,10 +3455,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
@@ -3415,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -3431,10 +3490,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
@@ -3464,10 +3523,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
@@ -3486,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3499,10 +3558,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
@@ -3518,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>0</v>
@@ -3534,10 +3593,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
@@ -3567,7 +3626,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
@@ -3587,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3600,10 +3659,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
@@ -3622,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3635,10 +3694,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
@@ -3667,10 +3726,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
@@ -3738,13 +3797,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
@@ -3762,27 +3821,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B22" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -3809,7 +3868,7 @@
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3851,7 +3910,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3879,7 +3938,7 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K3" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3921,7 +3980,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3945,14 +4004,14 @@
         <v>4</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K4" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -3994,7 +4053,7 @@
     </row>
     <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4018,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4082,7 +4141,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4109,7 +4168,7 @@
         <v/>
       </c>
       <c r="J7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K7" s="8" t="str">
         <f t="shared" ref="K7:K22" ca="1" si="4">SUBSTITUTE(
@@ -4151,7 +4210,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4179,7 +4238,7 @@
         <v/>
       </c>
       <c r="J8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K8" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4200,7 +4259,7 @@
     </row>
     <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4228,7 +4287,7 @@
         <v/>
       </c>
       <c r="J9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4249,7 +4308,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4277,7 +4336,7 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4298,7 +4357,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4322,14 +4381,14 @@
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4350,7 +4409,7 @@
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4378,7 +4437,7 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4399,7 +4458,7 @@
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4427,7 +4486,7 @@
         <v/>
       </c>
       <c r="J13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4448,7 +4507,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4472,14 +4531,14 @@
         <v>4</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4500,7 +4559,7 @@
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4524,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4552,7 +4611,7 @@
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4576,14 +4635,14 @@
         <v>4</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4604,7 +4663,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4632,7 +4691,7 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4653,7 +4712,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4682,7 +4741,7 @@
         <v/>
       </c>
       <c r="J18" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4703,7 +4762,7 @@
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4727,14 +4786,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4755,7 +4814,7 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4784,7 +4843,7 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4805,7 +4864,7 @@
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4833,7 +4892,7 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4854,7 +4913,7 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -4882,7 +4941,7 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4980,13 +5039,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>5</v>
@@ -5004,27 +5063,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B34" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -5051,7 +5110,7 @@
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -5093,7 +5152,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5121,7 +5180,7 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="8" t="str">
         <f t="shared" ref="K3:K34" ca="1" si="3">SUBSTITUTE(
@@ -5163,7 +5222,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5191,7 +5250,7 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K4" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5212,7 +5271,7 @@
     </row>
     <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5240,7 +5299,7 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K5" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5261,7 +5320,7 @@
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5313,7 +5372,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5337,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5365,7 +5424,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5393,7 +5452,7 @@
         <v/>
       </c>
       <c r="J8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K8" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5442,7 +5501,7 @@
         <v/>
       </c>
       <c r="J9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5463,7 +5522,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5491,7 +5550,7 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5512,7 +5571,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5540,7 +5599,7 @@
         <v/>
       </c>
       <c r="J11" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5561,7 +5620,7 @@
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5589,7 +5648,7 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5610,7 +5669,7 @@
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5638,7 +5697,7 @@
         <v/>
       </c>
       <c r="J13" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5659,7 +5718,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5687,7 +5746,7 @@
         <v/>
       </c>
       <c r="J14" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5708,7 +5767,7 @@
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5732,14 +5791,14 @@
         <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K15" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5760,7 +5819,7 @@
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5788,7 +5847,7 @@
         <v/>
       </c>
       <c r="J16" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5809,7 +5868,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5837,7 +5896,7 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5858,7 +5917,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5886,7 +5945,7 @@
         <v/>
       </c>
       <c r="J18" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5907,7 +5966,7 @@
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5935,7 +5994,7 @@
         <v/>
       </c>
       <c r="J19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5956,7 +6015,7 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5984,7 +6043,7 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6005,7 +6064,7 @@
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6033,7 +6092,7 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6054,7 +6113,7 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6082,7 +6141,7 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6103,7 +6162,7 @@
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6131,7 +6190,7 @@
         <v/>
       </c>
       <c r="J23" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K23" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6152,7 +6211,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6180,7 +6239,7 @@
         <v/>
       </c>
       <c r="J24" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K24" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6201,7 +6260,7 @@
     </row>
     <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6229,7 +6288,7 @@
         <v/>
       </c>
       <c r="J25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K25" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6250,7 +6309,7 @@
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6278,7 +6337,7 @@
         <v/>
       </c>
       <c r="J26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K26" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6299,7 +6358,7 @@
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6327,7 +6386,7 @@
         <v/>
       </c>
       <c r="J27" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K27" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6348,7 +6407,7 @@
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6372,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6400,7 +6459,7 @@
     </row>
     <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6424,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6452,7 +6511,7 @@
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6476,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I30" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6504,7 +6563,7 @@
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6528,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I31" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6556,7 +6615,7 @@
     </row>
     <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6584,7 +6643,7 @@
         <v/>
       </c>
       <c r="J32" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K32" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6605,7 +6664,7 @@
     </row>
     <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6633,7 +6692,7 @@
         <v/>
       </c>
       <c r="J33" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K33" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6654,7 +6713,7 @@
     </row>
     <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6682,7 +6741,7 @@
         <v/>
       </c>
       <c r="J34" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K34" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6744,13 +6803,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>277</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -6768,27 +6827,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B2" s="16" t="str">
         <f t="shared" ref="B2:B40" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -6815,7 +6874,7 @@
         <v/>
       </c>
       <c r="J2" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -6857,7 +6916,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6885,7 +6944,7 @@
         <v/>
       </c>
       <c r="J3" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="8" t="str">
         <f t="shared" ref="K3:K40" ca="1" si="4">SUBSTITUTE(
@@ -6920,7 +6979,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="16" t="str">
         <f t="shared" si="0"/>
@@ -6948,7 +7007,7 @@
         <v/>
       </c>
       <c r="J4" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K4" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6997,7 +7056,7 @@
         <v/>
       </c>
       <c r="J5" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K5" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7018,7 +7077,7 @@
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7042,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7070,7 +7129,7 @@
     </row>
     <row r="7" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7094,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7122,7 +7181,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7146,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -7174,7 +7233,7 @@
     </row>
     <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7202,7 +7261,7 @@
         <v/>
       </c>
       <c r="J9" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K9" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7223,7 +7282,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7251,7 +7310,7 @@
         <v/>
       </c>
       <c r="J10" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7272,7 +7331,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7300,7 +7359,7 @@
         <v/>
       </c>
       <c r="J11" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7321,7 +7380,7 @@
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7349,7 +7408,7 @@
         <v/>
       </c>
       <c r="J12" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7370,7 +7429,7 @@
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7398,7 +7457,7 @@
         <v/>
       </c>
       <c r="J13" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7419,7 +7478,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7443,14 +7502,14 @@
         <v>4</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7471,7 +7530,7 @@
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7495,14 +7554,14 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K15" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7523,7 +7582,7 @@
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7547,14 +7606,14 @@
         <v>4</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7575,7 +7634,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7603,7 +7662,7 @@
         <v/>
       </c>
       <c r="J17" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7624,7 +7683,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7652,7 +7711,7 @@
         <v/>
       </c>
       <c r="J18" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7673,7 +7732,7 @@
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7701,7 +7760,7 @@
         <v/>
       </c>
       <c r="J19" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7722,7 +7781,7 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7750,7 +7809,7 @@
         <v/>
       </c>
       <c r="J20" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7771,7 +7830,7 @@
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7799,7 +7858,7 @@
         <v/>
       </c>
       <c r="J21" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7820,7 +7879,7 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7848,7 +7907,7 @@
         <v/>
       </c>
       <c r="J22" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7869,7 +7928,7 @@
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7897,7 +7956,7 @@
         <v/>
       </c>
       <c r="J23" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K23" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7918,7 +7977,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7946,7 +8005,7 @@
         <v/>
       </c>
       <c r="J24" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K24" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7967,7 +8026,7 @@
     </row>
     <row r="25" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
@@ -7995,7 +8054,7 @@
         <v/>
       </c>
       <c r="J25" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K25" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8016,7 +8075,7 @@
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8044,7 +8103,7 @@
         <v/>
       </c>
       <c r="J26" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K26" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8065,7 +8124,7 @@
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8093,7 +8152,7 @@
         <v/>
       </c>
       <c r="J27" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K27" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8114,7 +8173,7 @@
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8142,7 +8201,7 @@
         <v/>
       </c>
       <c r="J28" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K28" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8191,7 +8250,7 @@
         <v/>
       </c>
       <c r="J29" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K29" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8212,7 +8271,7 @@
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8240,7 +8299,7 @@
         <v/>
       </c>
       <c r="J30" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K30" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8261,7 +8320,7 @@
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8289,7 +8348,7 @@
         <v/>
       </c>
       <c r="J31" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K31" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8310,7 +8369,7 @@
     </row>
     <row r="32" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8338,7 +8397,7 @@
         <v/>
       </c>
       <c r="J32" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K32" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8359,7 +8418,7 @@
     </row>
     <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8387,7 +8446,7 @@
         <v/>
       </c>
       <c r="J33" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K33" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8408,7 +8467,7 @@
     </row>
     <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8436,7 +8495,7 @@
         <v/>
       </c>
       <c r="J34" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K34" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8457,7 +8516,7 @@
     </row>
     <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8485,7 +8544,7 @@
         <v/>
       </c>
       <c r="J35" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K35" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8506,7 +8565,7 @@
     </row>
     <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8534,7 +8593,7 @@
         <v/>
       </c>
       <c r="J36" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K36" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8555,7 +8614,7 @@
     </row>
     <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8583,7 +8642,7 @@
         <v/>
       </c>
       <c r="J37" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K37" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8604,7 +8663,7 @@
     </row>
     <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8628,7 +8687,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I38" s="7" t="str">
         <f t="shared" si="1"/>
@@ -8656,7 +8715,7 @@
     </row>
     <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8680,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I39" s="7" t="str">
         <f t="shared" si="1"/>
@@ -8708,7 +8767,7 @@
     </row>
     <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -8736,7 +8795,7 @@
         <v/>
       </c>
       <c r="J40" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K40" s="8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8796,13 +8855,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>277</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -8820,27 +8879,27 @@
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B31" si="0">LOWER(SUBSTITUTE(A2," ", "_"))</f>
@@ -8867,7 +8926,7 @@
         <v/>
       </c>
       <c r="J2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K2" s="8" t="str">
         <f ca="1">SUBSTITUTE(
@@ -8909,7 +8968,7 @@
     </row>
     <row r="3" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -8937,7 +8996,7 @@
         <v/>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K3" s="8" t="str">
         <f t="shared" ref="K3:K40" ca="1" si="5">SUBSTITUTE(
@@ -8972,7 +9031,7 @@
     </row>
     <row r="4" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9000,7 +9059,7 @@
         <v/>
       </c>
       <c r="J4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K4" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9021,7 +9080,7 @@
     </row>
     <row r="5" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9049,7 +9108,7 @@
         <v/>
       </c>
       <c r="J5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K5" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9070,7 +9129,7 @@
     </row>
     <row r="6" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9098,7 +9157,7 @@
         <v/>
       </c>
       <c r="J6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K6" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9147,7 +9206,7 @@
         <v/>
       </c>
       <c r="J7" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K7" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9168,7 +9227,7 @@
     </row>
     <row r="8" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9192,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9220,7 +9279,7 @@
     </row>
     <row r="9" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9244,7 +9303,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9272,7 +9331,7 @@
     </row>
     <row r="10" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9300,7 +9359,7 @@
         <v/>
       </c>
       <c r="J10" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K10" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9321,7 +9380,7 @@
     </row>
     <row r="11" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9349,7 +9408,7 @@
         <v/>
       </c>
       <c r="J11" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K11" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9370,7 +9429,7 @@
     </row>
     <row r="12" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9398,7 +9457,7 @@
         <v/>
       </c>
       <c r="J12" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K12" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9419,7 +9478,7 @@
     </row>
     <row r="13" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9443,14 +9502,14 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K13" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9471,7 +9530,7 @@
     </row>
     <row r="14" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9499,7 +9558,7 @@
         <v/>
       </c>
       <c r="J14" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K14" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9520,7 +9579,7 @@
     </row>
     <row r="15" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9548,7 +9607,7 @@
         <v/>
       </c>
       <c r="J15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K15" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9569,7 +9628,7 @@
     </row>
     <row r="16" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9597,7 +9656,7 @@
         <v/>
       </c>
       <c r="J16" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K16" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9618,7 +9677,7 @@
     </row>
     <row r="17" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9646,7 +9705,7 @@
         <v/>
       </c>
       <c r="J17" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K17" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9667,7 +9726,7 @@
     </row>
     <row r="18" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9691,14 +9750,14 @@
         <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K18" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9719,7 +9778,7 @@
     </row>
     <row r="19" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9743,14 +9802,14 @@
         <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K19" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9771,7 +9830,7 @@
     </row>
     <row r="20" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9799,7 +9858,7 @@
         <v/>
       </c>
       <c r="J20" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K20" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9820,7 +9879,7 @@
     </row>
     <row r="21" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9848,7 +9907,7 @@
         <v/>
       </c>
       <c r="J21" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K21" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9869,7 +9928,7 @@
     </row>
     <row r="22" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9897,7 +9956,7 @@
         <v/>
       </c>
       <c r="J22" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K22" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9918,7 +9977,7 @@
     </row>
     <row r="23" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9946,7 +10005,7 @@
         <v/>
       </c>
       <c r="J23" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K23" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9967,7 +10026,7 @@
     </row>
     <row r="24" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -9995,7 +10054,7 @@
         <v/>
       </c>
       <c r="J24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K24" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10044,7 +10103,7 @@
         <v/>
       </c>
       <c r="J25" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K25" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10065,7 +10124,7 @@
     </row>
     <row r="26" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10093,7 +10152,7 @@
         <v/>
       </c>
       <c r="J26" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K26" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10114,7 +10173,7 @@
     </row>
     <row r="27" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10142,7 +10201,7 @@
         <v/>
       </c>
       <c r="J27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K27" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10163,7 +10222,7 @@
     </row>
     <row r="28" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10191,7 +10250,7 @@
         <v/>
       </c>
       <c r="J28" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K28" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10212,7 +10271,7 @@
     </row>
     <row r="29" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10240,7 +10299,7 @@
         <v/>
       </c>
       <c r="J29" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K29" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10261,7 +10320,7 @@
     </row>
     <row r="30" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10289,7 +10348,7 @@
         <v/>
       </c>
       <c r="J30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K30" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10310,7 +10369,7 @@
     </row>
     <row r="31" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -10338,7 +10397,7 @@
         <v/>
       </c>
       <c r="J31" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K31" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10366,7 +10425,7 @@
     </row>
     <row r="33" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" ref="B33:B40" si="8">LOWER(SUBSTITUTE(A33," ", "_"))</f>
@@ -10391,7 +10450,7 @@
         <v/>
       </c>
       <c r="J33" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K33" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10412,7 +10471,7 @@
     </row>
     <row r="34" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10437,7 +10496,7 @@
         <v/>
       </c>
       <c r="J34" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K34" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10458,7 +10517,7 @@
     </row>
     <row r="35" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10483,7 +10542,7 @@
         <v/>
       </c>
       <c r="J35" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K35" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10504,7 +10563,7 @@
     </row>
     <row r="36" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10529,7 +10588,7 @@
         <v/>
       </c>
       <c r="J36" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K36" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10550,7 +10609,7 @@
     </row>
     <row r="37" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10575,7 +10634,7 @@
         <v/>
       </c>
       <c r="J37" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K37" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10596,7 +10655,7 @@
     </row>
     <row r="38" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10621,7 +10680,7 @@
         <v/>
       </c>
       <c r="J38" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K38" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10642,7 +10701,7 @@
     </row>
     <row r="39" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10667,7 +10726,7 @@
         <v/>
       </c>
       <c r="J39" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K39" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10688,7 +10747,7 @@
     </row>
     <row r="40" spans="1:14" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" si="8"/>
@@ -10713,7 +10772,7 @@
         <v/>
       </c>
       <c r="J40" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K40" s="8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -10770,7 +10829,7 @@
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10778,7 +10837,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10786,7 +10845,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10794,7 +10853,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10802,96 +10861,96 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10907,11 +10966,11 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10937,10 +10996,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -10964,10 +11023,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -10976,7 +11035,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -10994,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -11007,7 +11066,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -11040,7 +11099,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -11073,13 +11132,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D3:D22" si="3">D4+E4</f>
+        <f t="shared" ref="D5:D22" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -11095,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" ref="M5:M20" si="4">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
@@ -11108,10 +11167,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="3"/>
@@ -11140,10 +11199,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="3"/>
@@ -11173,10 +11232,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="3"/>
@@ -11195,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11208,10 +11267,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="3"/>
@@ -11240,10 +11299,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="3"/>
@@ -11272,10 +11331,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="3"/>
@@ -11304,10 +11363,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="3"/>
@@ -11337,10 +11396,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="3"/>
@@ -11356,7 +11415,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>0</v>
@@ -11372,10 +11431,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="3"/>
@@ -11391,7 +11450,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>0</v>
@@ -11426,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11439,10 +11498,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="3"/>
@@ -11458,7 +11517,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>0</v>
@@ -11474,10 +11533,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="3"/>
@@ -11493,7 +11552,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>0</v>
@@ -11509,10 +11568,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="3"/>
@@ -11528,7 +11587,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>0</v>
@@ -11544,10 +11603,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="3"/>
@@ -11563,7 +11622,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>0</v>
@@ -11579,10 +11638,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
@@ -11598,7 +11657,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
@@ -11614,10 +11673,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
@@ -11633,7 +11692,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>0</v>
@@ -11649,10 +11708,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
@@ -11668,7 +11727,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>0</v>
@@ -11699,7 +11758,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="A3:J4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11725,10 +11784,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -11752,10 +11811,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -11782,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2:M8" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -11794,6 +11853,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
@@ -11811,21 +11873,22 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="M3" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O8" ca="1" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(INDIRECT(UPPER(CONCATENATE(G3,IF(I3="Yes","_CONSTANT","")))), "::source_field::", A3), "::target_field::", C3), "::position::", D3), "::length::", E3), "::format::", H3), "::constant::", J3), "::is_nullable::", IF(F3="Yes", "pxi_common.fc_is_not_nullable", "pxi_common.fc_is_nullable")), "::format_type::", CONCATENATE("pxi_common.fc_format_type_", IF(ISBLANK(L3), "none", LOWER(L3))))</f>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXCompanyCode</v>
+        <v>pxi_common.char_format(promax_company, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_company -&gt; PXCompanyCode</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11843,26 +11906,24 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT '149' -&gt; PXDivisionCode</v>
+        <v>pxi_common.char_format(promax_division, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- promax_division -&gt; PXDivisionCode</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8">
         <f>D4+E4</f>
@@ -11882,7 +11943,7 @@
       </c>
       <c r="J5" s="10"/>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11895,10 +11956,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ref="D6:D8" si="3">D5+E5</f>
@@ -11927,10 +11988,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="3"/>
@@ -11949,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11962,10 +12023,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="3"/>
@@ -11984,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12059,7 +12120,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12085,10 +12146,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -12112,10 +12173,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -12124,7 +12185,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -12142,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2:M11" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -12155,7 +12216,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -12188,7 +12249,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -12221,13 +12282,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D3:D11" si="4">D4+E4</f>
+        <f t="shared" ref="D5:D11" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -12243,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12256,7 +12317,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>43</v>
@@ -12320,7 +12381,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
@@ -12342,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12355,7 +12416,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>45</v>
@@ -12386,6 +12447,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
@@ -12403,10 +12467,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12414,12 +12475,15 @@
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; DefaultCurrenty</v>
+        <v>pxi_common.char_format(currency, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- currency -&gt; DefaultCurrenty</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="4"/>
@@ -12435,18 +12499,16 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10"/>
       <c r="M11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('149', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '149' -&gt; SalesOrg</v>
+        <v>pxi_common.char_format(sales_org_code, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- sales_org_code -&gt; SalesOrg</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -12495,10 +12557,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -12522,10 +12584,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -12552,7 +12614,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -12565,7 +12627,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -12598,7 +12660,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -12631,13 +12693,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D4:D8" si="4">D4+E4</f>
+        <f t="shared" ref="D5:D8" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -12654,7 +12716,7 @@
       </c>
       <c r="J5" s="10"/>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="1"/>
@@ -12667,10 +12729,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="4"/>
@@ -12699,10 +12761,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="4"/>
@@ -12731,10 +12793,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="4"/>
@@ -12753,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -12819,10 +12881,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -12846,10 +12908,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -12876,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2:M8" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -12889,7 +12951,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -12922,7 +12984,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -12961,7 +13023,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D4:D8" si="3">D4+E4</f>
+        <f t="shared" ref="D5:D8" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -12977,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13073,7 +13135,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13107,7 +13169,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13133,10 +13195,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -13160,10 +13222,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -13172,7 +13234,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -13190,7 +13252,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -13203,7 +13265,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -13236,7 +13298,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -13269,10 +13331,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D4:D10" si="3">D4+E4</f>
+        <f t="shared" ref="D5:D10" si="3">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -13288,10 +13350,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" ref="M5:M10" si="4">IF(ISBLANK(H5),"",CONCATENATE(IF(LEN(H5)&lt;&gt;E5,"#",""),LEN(H5)))</f>
@@ -13304,10 +13366,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="3"/>
@@ -13323,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13336,10 +13398,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="3"/>
@@ -13355,7 +13417,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J7" s="10"/>
       <c r="M7" s="7" t="str">
@@ -13369,10 +13431,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="3"/>
@@ -13388,7 +13450,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13401,10 +13463,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="3"/>
@@ -13420,7 +13482,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13432,6 +13494,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
@@ -13449,10 +13514,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -13460,7 +13522,7 @@
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
+        <v>pxi_common.char_format(currency, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- currency -&gt; Currency</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -13512,10 +13574,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -13539,10 +13601,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -13569,7 +13631,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2:M8" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -13621,7 +13683,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D3:D13" si="3">D3+E3</f>
+        <f t="shared" ref="D4:D13" si="3">D3+E3</f>
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -13669,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13768,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13800,7 +13862,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -13835,7 +13897,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
@@ -13870,7 +13932,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -13905,7 +13967,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -13983,7 +14045,7 @@
       <pane xSplit="12" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:J4"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -14009,10 +14071,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -14036,10 +14098,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
@@ -14066,7 +14128,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M2" s="7" t="str">
         <f t="shared" ref="M2" si="0">IF(ISBLANK(H2),"",CONCATENATE(IF(LEN(H2)&lt;&gt;E2,"#",""),LEN(H2)))</f>
@@ -14079,7 +14141,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -14112,7 +14174,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>30</v>
@@ -14145,13 +14207,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D3:D18" si="4">D4+E4</f>
+        <f t="shared" ref="D5:D18" si="4">D4+E4</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -14167,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14180,10 +14242,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="4"/>
@@ -14212,7 +14274,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="4"/>
@@ -14231,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14263,7 +14325,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14276,7 +14338,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -14295,7 +14357,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -14311,10 +14373,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="4"/>
@@ -14343,7 +14405,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="4"/>
@@ -14376,10 +14438,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="4"/>
@@ -14409,7 +14471,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="4"/>
@@ -14428,7 +14490,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14441,10 +14503,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="4"/>
@@ -14473,10 +14535,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="4"/>
@@ -14492,7 +14554,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>0</v>
@@ -14508,10 +14570,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="4"/>
@@ -14527,7 +14589,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>0</v>
@@ -14541,9 +14603,9 @@
         <v>pxi_common.numb_format(tax_amount, '9999999990.00', pxi_common.fc_is_not_nullable) || -- tax_amount -&gt; TaxAmount</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="4"/>
@@ -14562,7 +14624,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14573,7 +14635,10 @@
         <v>pxi_common.char_format('', 256, pxi_common.fc_format_type_none, pxi_common.fc_is_nullable) || -- CONSTANT '' -&gt; Note</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -14591,10 +14656,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -14602,7 +14664,7 @@
       </c>
       <c r="O18" s="8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>pxi_common.char_format('NZD', 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- CONSTANT 'NZD' -&gt; Currency</v>
+        <v>pxi_common.char_format(currency, 3, pxi_common.fc_format_type_none, pxi_common.fc_is_not_nullable) || -- currency -&gt; Currency</v>
       </c>
     </row>
   </sheetData>
